--- a/计算结果对比.xlsx
+++ b/计算结果对比.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\SAA_Solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9776C86A-1249-4EBD-8A96-FCB7EF835BE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A152F91A-C96D-4D97-B6D8-4B4D667CA3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6930" yWindow="3430" windowWidth="28800" windowHeight="13880" xr2:uid="{EE79F45A-FDE5-45C5-A571-8C4E6D107684}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="43">
   <si>
     <t>Gurobi</t>
   </si>
@@ -97,23 +97,10 @@
     </r>
   </si>
   <si>
-    <t>Kmeans++(10)</t>
-  </si>
-  <si>
-    <t>SpectralClustering(10)</t>
-  </si>
-  <si>
-    <t>GMM(10)</t>
-  </si>
-  <si>
     <t>降维方法\聚类方法(聚类数)</t>
   </si>
   <si>
     <t>城市，场景</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpectralClustering(10)</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -199,15 +186,8 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>GMM(10)</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>相对gurobi百分比%/Gap</t>
     <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>SKS(10)</t>
   </si>
   <si>
     <r>
@@ -255,37 +235,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>PCA-Kmeans++(10)</t>
-  </si>
-  <si>
-    <t>PCA-SpectralClustering(10)</t>
-  </si>
-  <si>
-    <t>PCA-GMM(10)</t>
-  </si>
-  <si>
     <t>PCA-SOM</t>
   </si>
   <si>
-    <t>SVD-Kmeans++(10)</t>
-  </si>
-  <si>
-    <t>SVD-SpectralClustering(10)</t>
-  </si>
-  <si>
-    <t>SVD-GMM(10)</t>
-  </si>
-  <si>
     <t>SVD-SOM</t>
-  </si>
-  <si>
-    <t>NONE-Kmeans++(10)</t>
-  </si>
-  <si>
-    <t>NONE-SpectralClustering(10)</t>
-  </si>
-  <si>
-    <t>NONE-GMM(10)</t>
   </si>
   <si>
     <t>NONE-SOM</t>
@@ -296,6 +249,49 @@
   </si>
   <si>
     <t>准确度对比%</t>
+  </si>
+  <si>
+    <t>SKS</t>
+  </si>
+  <si>
+    <t>SKS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kmeans++</t>
+  </si>
+  <si>
+    <t>SpectralClustering</t>
+  </si>
+  <si>
+    <t>GMM</t>
+  </si>
+  <si>
+    <t>PCA-Kmeans++</t>
+  </si>
+  <si>
+    <t>PCA-SpectralClustering</t>
+  </si>
+  <si>
+    <t>PCA-GMM</t>
+  </si>
+  <si>
+    <t>SVD-Kmeans++</t>
+  </si>
+  <si>
+    <t>SVD-SpectralClustering</t>
+  </si>
+  <si>
+    <t>SVD-GMM</t>
+  </si>
+  <si>
+    <t>NONE-Kmeans++</t>
+  </si>
+  <si>
+    <t>NONE-SpectralClustering</t>
+  </si>
+  <si>
+    <t>NONE-GMM</t>
   </si>
 </sst>
 </file>
@@ -572,7 +568,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
-              <a:t>计算时间对比</a:t>
+              <a:t>计算时间对比（秒）</a:t>
             </a:r>
             <a:endParaRPr lang="en-US" altLang="zh-CN"/>
           </a:p>
@@ -718,7 +714,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SKS(10)</c:v>
+                  <c:v>SKS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -804,7 +800,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCA-Kmeans++(10)</c:v>
+                  <c:v>PCA-Kmeans++</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -890,7 +886,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCA-SpectralClustering(10)</c:v>
+                  <c:v>PCA-SpectralClustering</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -976,7 +972,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCA-GMM(10)</c:v>
+                  <c:v>PCA-GMM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1148,7 +1144,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVD-Kmeans++(10)</c:v>
+                  <c:v>SVD-Kmeans++</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1236,7 +1232,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVD-SpectralClustering(10)</c:v>
+                  <c:v>SVD-SpectralClustering</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1324,7 +1320,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVD-GMM(10)</c:v>
+                  <c:v>SVD-GMM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1500,7 +1496,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NONE-Kmeans++(10)</c:v>
+                  <c:v>NONE-Kmeans++</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1588,7 +1584,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NONE-SpectralClustering(10)</c:v>
+                  <c:v>NONE-SpectralClustering</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1676,7 +1672,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NONE-GMM(10)</c:v>
+                  <c:v>NONE-GMM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2074,6 +2070,1960 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>计算时间对比（秒）</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4437405999997281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.76051720000032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.30054050000039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.367727700000607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>955.07370709999668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5184.6941237000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0845-4F70-ABE8-376429CE95A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.42636440001661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.174778900051017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.49530040001261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>557.33090030000312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.5091972000082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.45411610003794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0845-4F70-ABE8-376429CE95A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA-Kmeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.47082450000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.65650000000096</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>142.94826740000099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>137.9757699000038</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267.74053129999811</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>544.44518770000013</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0845-4F70-ABE8-376429CE95A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA-SpectralClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.035346200000021</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.00627539999914</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.77789499999929</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.07181409999609</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272.28993929999712</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>521.80256929999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-0845-4F70-ABE8-376429CE95A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA-GMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>29.24329890000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56.041012900001078</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>140.084024400001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>119.99024129999449</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>284.70580070000142</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>701.42900760000066</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-0845-4F70-ABE8-376429CE95A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA-SOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.3617271</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.989707100001397</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.18302260000021</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>292.35925400001003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>369.98966459999792</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>622.86385749999954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-0845-4F70-ABE8-376429CE95A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD-Kmeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>26.55899770000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.183636800000393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>152.02559579999979</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.30691669999941</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>338.08819149999908</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1167.9872307000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-0845-4F70-ABE8-376429CE95A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD-SpectralClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.574564800000019</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.109449600000517</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>134.50916920000051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>173.81142450000331</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>307.58575920000288</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>833.2199782000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-0845-4F70-ABE8-376429CE95A9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="722266336"/>
+        <c:axId val="722266816"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="722266336"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722266816"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="722266816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="722266336"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>计算时间对比（秒）</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gurobi</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$26:$G$26</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.4437405999997281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.76051720000032</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116.30054050000039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.367727700000607</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>955.07370709999668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5184.6941237000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1CCD-4B54-9D47-0CD609CC9BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.42636440001661</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.174778900051017</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>169.49530040001261</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>557.33090030000312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>294.5091972000082</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>600.45411610003794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1CCD-4B54-9D47-0CD609CC9BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD-GMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$34:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>29.758330800000071</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.169434700001148</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>137.272615599999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.0322940999977</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>356.07424039999751</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>558.83835650000037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1CCD-4B54-9D47-0CD609CC9BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD-SOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>31.667528899999979</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.198113900001772</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.09653880000039</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>281.55618559999863</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>490.19490529999888</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>633.25832780000019</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1CCD-4B54-9D47-0CD609CC9BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NONE-Kmeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$36:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>28.72126100000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.783967999999732</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.27143769999751</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>153.1570088000008</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>344.21500280000328</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>618.0655295000015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1CCD-4B54-9D47-0CD609CC9BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NONE-SpectralClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>30.948350100000031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>66.411767699999473</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>138.11516069999931</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>145.1918671000021</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>221.42428259999721</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>811.21009000000049</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-1CCD-4B54-9D47-0CD609CC9BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NONE-GMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>32.337306999999953</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.19950119999703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>139.64134910000209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.17830069999761</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>402.89089900000539</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>695.59151740000016</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-1CCD-4B54-9D47-0CD609CC9BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NONE-SOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$25:$G$25</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>36.720983699999977</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.814072799999849</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>145.58752749999991</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>223.3703489000327</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>347.40497519999923</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>983.22086520000084</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-1CCD-4B54-9D47-0CD609CC9BEE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="658045232"/>
+        <c:axId val="658042352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="658045232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658042352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="658042352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="658045232"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="zh-CN" altLang="en-US"/>
               <a:t>相对</a:t>
             </a:r>
@@ -2087,7 +4037,19 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" altLang="zh-CN"/>
-              <a:t>gap%</a:t>
+              <a:t>Gap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN"/>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US"/>
+              <a:t>）</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -2137,7 +4099,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SKS(10)</c:v>
+                  <c:v>SKS</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2223,7 +4185,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCA-Kmeans++(10)</c:v>
+                  <c:v>PCA-Kmeans++</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2309,7 +4271,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCA-SpectralClustering(10)</c:v>
+                  <c:v>PCA-SpectralClustering</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2395,7 +4357,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>PCA-GMM(10)</c:v>
+                  <c:v>PCA-GMM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2567,7 +4529,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVD-Kmeans++(10)</c:v>
+                  <c:v>SVD-Kmeans++</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2653,7 +4615,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVD-SpectralClustering(10)</c:v>
+                  <c:v>SVD-SpectralClustering</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2741,7 +4703,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>SVD-GMM(10)</c:v>
+                  <c:v>SVD-GMM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2917,7 +4879,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NONE-Kmeans++(10)</c:v>
+                  <c:v>NONE-Kmeans++</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3005,7 +4967,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NONE-SpectralClustering(10)</c:v>
+                  <c:v>NONE-SpectralClustering</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3093,7 +5055,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>NONE-GMM(10)</c:v>
+                  <c:v>NONE-GMM</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3456,6 +5418,1916 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>相对</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Gurobi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>精确解的</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Gap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1975263725193841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55127377425676183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43427592360649181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.038364467027229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.082459349222705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1289131091136457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3071-43B2-BFF4-2D3CFC1FBDB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA-Kmeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$28:$G$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7879557654893299</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3371505257084601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.38914266068756531</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16686635636622649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16591293568217899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.29847878473736861</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3071-43B2-BFF4-2D3CFC1FBDB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA-SpectralClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$29:$G$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.21584893610792949</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.28331619641242251</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.25647628827045005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.15341146789706611</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2211054013688882</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25125783162625459</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3071-43B2-BFF4-2D3CFC1FBDB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA-GMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$30:$G$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.0069447699657257E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.3738225858029352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.5075583455166528</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16979760437956989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.53692611350518593</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30131617328477422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3071-43B2-BFF4-2D3CFC1FBDB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>PCA-SOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$31:$G$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.5678104908972219</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.27398165752462439</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0038179261292628E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.21358680708538461</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1120964852091916</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1103169001285691</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3071-43B2-BFF4-2D3CFC1FBDB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD-Kmeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$32:$G$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.7924017786325832</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75984295802836976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43800122175187434</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.19332550157435369</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2053724412547567</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.26601031484206489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-3071-43B2-BFF4-2D3CFC1FBDB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD-SpectralClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$33:$G$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.18355642562199651</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.36970661647881831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23310957340009686</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.1963019791914819</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1187613622345285</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.57717421670055113</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3071-43B2-BFF4-2D3CFC1FBDB1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="696878911"/>
+        <c:axId val="696864031"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="696878911"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696864031"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696864031"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696878911"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>相对</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Gurobi</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>精确解的</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Gap</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>（</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>%</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="zh-CN" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>）</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SKS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$27:$G$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.1975263725193841</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.55127377425676183</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.43427592360649181</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.038364467027229</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.082459349222705</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1289131091136457</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53A1-46F3-9DE0-482470B905E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD-GMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$34:$G$34</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.44715298946040349</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18347354620085099</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13417908692670927</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.29605073806860172</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16574099776317749</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.2770610526983051</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-53A1-46F3-9DE0-482470B905E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD-SOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$35:$G$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4.7672630527646948E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14077661727852811</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.7679069740058375E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.101478379256076</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13739785449425759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20438227319238811</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-53A1-46F3-9DE0-482470B905E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NONE-Kmeans++</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$36:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.20021876158094509</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62868556232624162</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.22662788828815852</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18766909328567241</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.23377693905982649</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.37652747915798901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-53A1-46F3-9DE0-482470B905E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NONE-SpectralClustering</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.16295714120099239</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.39110962874153571</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72214904969118898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.24462684596891751</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.16689172623813961</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.266554573369727</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-53A1-46F3-9DE0-482470B905E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NONE-GMM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>7.9267106857007053E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1375952814734327</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23735135273812119</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.464474686745864</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.032356456194667E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.40291406382586981</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-53A1-46F3-9DE0-482470B905E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet3!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>NONE-SOM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet3!$B$26:$G$26</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20, 100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20, 200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20, 500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40, 100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40, 200</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>40, 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet3!$B$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.7926682140585225</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.41377360692279819</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26036991503879109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13425663870316559</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2326380894055117</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.5000444476768738E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-53A1-46F3-9DE0-482470B905E2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="696858271"/>
+        <c:axId val="696871231"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="696858271"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696871231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="696871231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696858271"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3536,6 +7408,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4568,20 +8600,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>197827</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>86456</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>354710</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>131281</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>429846</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>48845</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>586729</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>93669</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4606,6 +10702,78 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>418353</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>328706</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>146424</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09F619A0-BA58-CCB2-E6A6-709852C66716}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>291353</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>129989</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>261471</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4483</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F0A62C5-572C-DC6D-93FE-B3549B23AA5A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4613,16 +10781,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>508000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>98424</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>79374</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>158750</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>82549</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4642,6 +10810,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D437B979-2806-B5BA-1A64-31CF4A0FB5D4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>277587</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>157842</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>627530</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>112059</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00BA1DED-0CDB-9975-3A8E-14E50A9677AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4949,8 +11189,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6C7337-0379-4607-AE24-0BBDC40C83A5}">
   <dimension ref="A2:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="M3" workbookViewId="0">
+      <selection activeCell="R31" sqref="R31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4971,8 +11211,8 @@
     <col min="16" max="16" width="17.33203125" style="1" customWidth="1"/>
     <col min="17" max="18" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="9.4140625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5" style="1" customWidth="1"/>
-    <col min="21" max="21" width="9.5" style="1" customWidth="1"/>
+    <col min="20" max="20" width="11.4140625" style="1" customWidth="1"/>
+    <col min="21" max="21" width="9.4140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="21.75" style="1" customWidth="1"/>
     <col min="23" max="24" width="12.83203125" style="1" customWidth="1"/>
     <col min="25" max="25" width="14.1640625" style="1" customWidth="1"/>
@@ -4984,13 +11224,13 @@
   <sheetData>
     <row r="2" spans="1:28" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C2" s="24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D2" s="19"/>
       <c r="E2" s="19"/>
@@ -5000,13 +11240,13 @@
       <c r="I2" s="19"/>
       <c r="J2" s="3"/>
       <c r="K2" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="L2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="N2" s="21"/>
       <c r="O2" s="21"/>
@@ -5015,10 +11255,10 @@
       <c r="R2" s="21"/>
       <c r="S2" s="6"/>
       <c r="T2" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="U2" s="21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="V2" s="19" t="s">
         <v>14</v>
@@ -5034,43 +11274,43 @@
       <c r="A3" s="19"/>
       <c r="B3" s="19"/>
       <c r="C3" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>21</v>
       </c>
       <c r="J3" s="3"/>
       <c r="K3" s="21"/>
       <c r="L3" s="21"/>
       <c r="M3" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>7</v>
@@ -5079,25 +11319,25 @@
       <c r="T3" s="19"/>
       <c r="U3" s="19"/>
       <c r="V3" s="4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y3" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="Z3" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="AA3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AB3" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="AB3" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
@@ -5136,7 +11376,7 @@
         <v>11</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N4" s="16">
         <v>4.1975263725193841</v>
@@ -6988,8 +13228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D737EC5-45FB-4746-B261-A42ECDB6E5E1}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25:G25"/>
+    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M40" sqref="M39:M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -6999,13 +13239,13 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C1" s="24" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="D1" s="19"/>
       <c r="E1" s="19"/>
@@ -7018,25 +13258,25 @@
       <c r="A2" s="19"/>
       <c r="B2" s="19"/>
       <c r="C2" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="H2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I2" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
@@ -7467,7 +13707,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -7513,7 +13753,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B27" s="9">
         <v>32.42636440001661</v>
@@ -7536,7 +13776,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28" s="9">
         <v>26.47082450000002</v>
@@ -7559,7 +13799,7 @@
     </row>
     <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29" s="9">
         <v>28.035346200000021</v>
@@ -7582,7 +13822,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30" s="9">
         <v>29.24329890000001</v>
@@ -7605,7 +13845,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B31" s="9">
         <v>31.3617271</v>
@@ -7628,7 +13868,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32" s="9">
         <v>26.55899770000002</v>
@@ -7651,7 +13891,7 @@
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33" s="9">
         <v>28.574564800000019</v>
@@ -7674,7 +13914,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34" s="9">
         <v>29.758330800000071</v>
@@ -7697,7 +13937,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B35" s="9">
         <v>31.667528899999979</v>
@@ -7720,7 +13960,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36" s="9">
         <v>28.72126100000003</v>
@@ -7743,7 +13983,7 @@
     </row>
     <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37" s="9">
         <v>30.948350100000031</v>
@@ -7766,7 +14006,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38" s="9">
         <v>32.337306999999953</v>
@@ -7789,7 +14029,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B39" s="9">
         <v>36.720983699999977</v>
@@ -7995,8 +14235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEDF980B-CACD-488A-8DD1-488122F92EF1}">
   <dimension ref="A1:H39"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P81" sqref="P81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8006,13 +14246,13 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>27</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -8024,19 +14264,19 @@
       <c r="A2" s="21"/>
       <c r="B2" s="21"/>
       <c r="C2" s="4" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
@@ -8050,7 +14290,7 @@
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D3" s="16">
         <v>4.1975263725193841</v>
@@ -8440,7 +14680,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -8463,7 +14703,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>4.1975263725193841</v>
@@ -8486,7 +14726,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
         <v>4.7879557654893299</v>
@@ -8509,7 +14749,7 @@
     </row>
     <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
         <v>0.21584893610792949</v>
@@ -8532,7 +14772,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
         <v>4.0069447699657257E-2</v>
@@ -8555,7 +14795,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B31">
         <v>1.5678104908972219</v>
@@ -8578,7 +14818,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B32">
         <v>3.7924017786325832</v>
@@ -8601,7 +14841,7 @@
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B33">
         <v>0.18355642562199651</v>
@@ -8624,7 +14864,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B34">
         <v>0.44715298946040349</v>
@@ -8647,7 +14887,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="B35">
         <v>4.7672630527646948E-2</v>
@@ -8670,7 +14910,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
         <v>0.20021876158094509</v>
@@ -8693,7 +14933,7 @@
     </row>
     <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0.16295714120099239</v>
@@ -8716,7 +14956,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
         <v>7.9267106857007053E-2</v>
@@ -8739,7 +14979,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="B39">
         <v>0.7926682140585225</v>

--- a/计算结果对比.xlsx
+++ b/计算结果对比.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\SAA_Solver\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A152F91A-C96D-4D97-B6D8-4B4D667CA3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E68328-C5E2-4FA0-A578-3F3BDE5CBB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6930" yWindow="3430" windowWidth="28800" windowHeight="13880" xr2:uid="{EE79F45A-FDE5-45C5-A571-8C4E6D107684}"/>
+    <workbookView xWindow="6930" yWindow="3430" windowWidth="28800" windowHeight="13880" activeTab="1" xr2:uid="{EE79F45A-FDE5-45C5-A571-8C4E6D107684}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="49">
   <si>
     <t>Gurobi</t>
   </si>
@@ -100,15 +101,7 @@
     <t>降维方法\聚类方法(聚类数)</t>
   </si>
   <si>
-    <t>城市，场景</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>SOM</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>样本数，样本场景数</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -293,6 +286,89 @@
   <si>
     <t>NONE-GMM</t>
   </si>
+  <si>
+    <t>IS,NS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS，SS</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>DR</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>\</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="3"/>
+      </rPr>
+      <t>CA</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kmeans</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>目标值</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>Value/</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10.5"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>万美元</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市，情景</t>
+  </si>
+  <si>
+    <t>样本数，样本情景数</t>
+  </si>
 </sst>
 </file>
 
@@ -302,7 +378,7 @@
     <numFmt numFmtId="176" formatCode="0.000"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -372,6 +448,21 @@
       <name val="Times New Roman"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -447,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
@@ -470,6 +561,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -11189,8 +11283,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6C7337-0379-4607-AE24-0BBDC40C83A5}">
   <dimension ref="A2:AB28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M3" workbookViewId="0">
-      <selection activeCell="R31" sqref="R31"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -11223,56 +11317,56 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:28" ht="27.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
+      <c r="A2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="3"/>
-      <c r="K2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
-      <c r="P2" s="21"/>
-      <c r="Q2" s="21"/>
-      <c r="R2" s="21"/>
+      <c r="K2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
       <c r="S2" s="6"/>
-      <c r="T2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="U2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="19" t="s">
+      <c r="T2" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="U2" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="V2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="W2" s="19"/>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="19"/>
-      <c r="AA2" s="19"/>
-      <c r="AB2" s="19"/>
+      <c r="W2" s="20"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="20"/>
+      <c r="Z2" s="20"/>
+      <c r="AA2" s="20"/>
+      <c r="AB2" s="20"/>
     </row>
     <row r="3" spans="1:28" ht="28" x14ac:dyDescent="0.3">
-      <c r="A3" s="19"/>
-      <c r="B3" s="19"/>
+      <c r="A3" s="20"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
@@ -11280,80 +11374,80 @@
         <v>0</v>
       </c>
       <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="I3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="21"/>
-      <c r="L3" s="21"/>
+      <c r="K3" s="22"/>
+      <c r="L3" s="22"/>
       <c r="M3" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="N3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="O3" s="4" t="s">
+      <c r="P3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="R3" s="4" t="s">
         <v>7</v>
       </c>
       <c r="S3" s="6"/>
-      <c r="T3" s="19"/>
-      <c r="U3" s="19"/>
+      <c r="T3" s="20"/>
+      <c r="U3" s="20"/>
       <c r="V3" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="W3" s="4" t="s">
         <v>0</v>
       </c>
       <c r="X3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="Y3" s="4" t="s">
+      <c r="Z3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="Z3" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="AB3" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="22">
+      <c r="D4" s="23">
         <v>4.4437405999997281</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="14">
         <v>32.42636440001661</v>
       </c>
       <c r="F4" s="8">
@@ -11369,16 +11463,16 @@
         <v>31.3617271</v>
       </c>
       <c r="J4" s="3"/>
-      <c r="K4" s="19" t="s">
+      <c r="K4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="N4" s="16">
+        <v>18</v>
+      </c>
+      <c r="N4" s="17">
         <v>4.1975263725193841</v>
       </c>
       <c r="O4" s="5">
@@ -11394,19 +11488,19 @@
         <v>1.5678104908972219</v>
       </c>
       <c r="S4" s="6"/>
-      <c r="T4" s="19" t="s">
+      <c r="T4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="U4" s="19" t="s">
+      <c r="U4" s="20" t="s">
         <v>11</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W4" s="23">
+      <c r="W4" s="24">
         <v>60704072.122205101</v>
       </c>
-      <c r="X4" s="10">
+      <c r="X4" s="11">
         <v>63252141.558727801</v>
       </c>
       <c r="Y4" s="7">
@@ -11423,13 +11517,13 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="14"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="15"/>
       <c r="F5" s="8">
         <v>26.55899770000002</v>
       </c>
@@ -11443,12 +11537,12 @@
         <v>31.667528899999979</v>
       </c>
       <c r="J5" s="3"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="17"/>
+      <c r="N5" s="18"/>
       <c r="O5" s="5">
         <v>3.7924017786325832</v>
       </c>
@@ -11462,13 +11556,13 @@
         <v>4.7672630527646948E-2</v>
       </c>
       <c r="S5" s="6"/>
-      <c r="T5" s="19"/>
-      <c r="U5" s="19"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
       <c r="V5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W5" s="23"/>
-      <c r="X5" s="11"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="12"/>
       <c r="Y5" s="7">
         <v>63006214.306230403</v>
       </c>
@@ -11483,13 +11577,13 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A6" s="19"/>
-      <c r="B6" s="19"/>
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
       <c r="C6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="15"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="16"/>
       <c r="F6" s="8">
         <v>28.72126100000003</v>
       </c>
@@ -11503,12 +11597,12 @@
         <v>36.720983699999977</v>
       </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
       <c r="M6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N6" s="18"/>
+      <c r="N6" s="19"/>
       <c r="O6" s="5">
         <v>0.20021876158094509</v>
       </c>
@@ -11522,13 +11616,13 @@
         <v>0.7926682140585225</v>
       </c>
       <c r="S6" s="6"/>
-      <c r="T6" s="19"/>
-      <c r="U6" s="19"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
       <c r="V6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W6" s="23"/>
-      <c r="X6" s="12"/>
+      <c r="W6" s="24"/>
+      <c r="X6" s="13"/>
       <c r="Y6" s="7">
         <v>60825612.941187613</v>
       </c>
@@ -11543,19 +11637,19 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="23">
         <v>15.76051720000032</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="14">
         <v>57.174778900051017</v>
       </c>
       <c r="F7" s="8">
@@ -11571,16 +11665,16 @@
         <v>58.989707100001397</v>
       </c>
       <c r="J7" s="3"/>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N7" s="16">
+      <c r="N7" s="17">
         <v>0.55127377425676183</v>
       </c>
       <c r="O7" s="5">
@@ -11596,19 +11690,19 @@
         <v>0.27398165752462439</v>
       </c>
       <c r="S7" s="6"/>
-      <c r="T7" s="19" t="s">
+      <c r="T7" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="U7" s="19" t="s">
+      <c r="U7" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V7" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W7" s="23">
+      <c r="W7" s="24">
         <v>68409915.671981901</v>
       </c>
-      <c r="X7" s="10">
+      <c r="X7" s="11">
         <v>68787041.596072704</v>
       </c>
       <c r="Y7" s="7">
@@ -11625,13 +11719,13 @@
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="14"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="15"/>
       <c r="F8" s="8">
         <v>59.183636800000393</v>
       </c>
@@ -11645,12 +11739,12 @@
         <v>58.198113900001772</v>
       </c>
       <c r="J8" s="3"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
       <c r="M8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="17"/>
+      <c r="N8" s="18"/>
       <c r="O8" s="5">
         <v>0.75984295802836976</v>
       </c>
@@ -11664,13 +11758,13 @@
         <v>0.14077661727852811</v>
       </c>
       <c r="S8" s="6"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
       <c r="V8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W8" s="23"/>
-      <c r="X8" s="11"/>
+      <c r="W8" s="24"/>
+      <c r="X8" s="12"/>
       <c r="Y8" s="7">
         <v>68929723.598808601</v>
       </c>
@@ -11685,13 +11779,13 @@
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
+      <c r="A9" s="20"/>
+      <c r="B9" s="20"/>
       <c r="C9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="15"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="16"/>
       <c r="F9" s="8">
         <v>59.783967999999732</v>
       </c>
@@ -11705,12 +11799,12 @@
         <v>61.814072799999849</v>
       </c>
       <c r="J9" s="3"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
       <c r="M9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="18"/>
+      <c r="N9" s="19"/>
       <c r="O9" s="5">
         <v>0.62868556232624162</v>
       </c>
@@ -11724,13 +11818,13 @@
         <v>0.41377360692279819</v>
       </c>
       <c r="S9" s="6"/>
-      <c r="T9" s="19"/>
-      <c r="U9" s="19"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
       <c r="V9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W9" s="23"/>
-      <c r="X9" s="12"/>
+      <c r="W9" s="24"/>
+      <c r="X9" s="13"/>
       <c r="Y9" s="7">
         <v>68839998.935011208</v>
       </c>
@@ -11745,19 +11839,19 @@
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="19" t="s">
+      <c r="B10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="22">
+      <c r="D10" s="23">
         <v>116.30054050000039</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <v>169.49530040001261</v>
       </c>
       <c r="F10" s="8">
@@ -11773,16 +11867,16 @@
         <v>144.18302260000021</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="19" t="s">
+      <c r="K10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="L10" s="19" t="s">
+      <c r="L10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N10" s="16">
+      <c r="N10" s="17">
         <v>0.43427592360649181</v>
       </c>
       <c r="O10" s="5">
@@ -11798,19 +11892,19 @@
         <v>5.0038179261292628E-2</v>
       </c>
       <c r="S10" s="6"/>
-      <c r="T10" s="19" t="s">
+      <c r="T10" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="U10" s="19" t="s">
+      <c r="U10" s="20" t="s">
         <v>13</v>
       </c>
       <c r="V10" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W10" s="23">
+      <c r="W10" s="24">
         <v>71066366.351997718</v>
       </c>
-      <c r="X10" s="10">
+      <c r="X10" s="11">
         <v>71374990.470846429</v>
       </c>
       <c r="Y10" s="7">
@@ -11827,13 +11921,13 @@
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="14"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="15"/>
       <c r="F11" s="8">
         <v>152.02559579999979</v>
       </c>
@@ -11847,12 +11941,12 @@
         <v>141.09653880000039</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
       <c r="M11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="17"/>
+      <c r="N11" s="18"/>
       <c r="O11" s="5">
         <v>0.43800122175187434</v>
       </c>
@@ -11866,13 +11960,13 @@
         <v>5.7679069740058375E-2</v>
       </c>
       <c r="S11" s="6"/>
-      <c r="T11" s="19"/>
-      <c r="U11" s="19"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
       <c r="V11" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W11" s="23"/>
-      <c r="X11" s="11"/>
+      <c r="W11" s="24"/>
+      <c r="X11" s="12"/>
       <c r="Y11" s="7">
         <v>71377637.904874116</v>
       </c>
@@ -11887,13 +11981,13 @@
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
+      <c r="A12" s="20"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="15"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="16"/>
       <c r="F12" s="8">
         <v>139.27143769999751</v>
       </c>
@@ -11907,12 +12001,12 @@
         <v>145.58752749999991</v>
       </c>
       <c r="J12" s="3"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
       <c r="M12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N12" s="18"/>
+      <c r="N12" s="19"/>
       <c r="O12" s="5">
         <v>0.22662788828815852</v>
       </c>
@@ -11926,13 +12020,13 @@
         <v>0.26036991503879109</v>
       </c>
       <c r="S12" s="6"/>
-      <c r="T12" s="19"/>
-      <c r="U12" s="19"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
       <c r="V12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W12" s="23"/>
-      <c r="X12" s="12"/>
+      <c r="W12" s="24"/>
+      <c r="X12" s="13"/>
       <c r="Y12" s="7">
         <v>71227422.557344362</v>
       </c>
@@ -11947,19 +12041,19 @@
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="23">
         <v>36.367727700000607</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="14">
         <v>557.33090030000312</v>
       </c>
       <c r="F13" s="8">
@@ -11975,16 +12069,16 @@
         <v>292.35925400001003</v>
       </c>
       <c r="J13" s="3"/>
-      <c r="K13" s="19" t="s">
+      <c r="K13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L13" s="19" t="s">
+      <c r="L13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="17">
         <v>2.038364467027229</v>
       </c>
       <c r="O13" s="5">
@@ -12000,19 +12094,19 @@
         <v>0.21358680708538461</v>
       </c>
       <c r="S13" s="6"/>
-      <c r="T13" s="19" t="s">
+      <c r="T13" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="U13" s="19" t="s">
+      <c r="U13" s="20" t="s">
         <v>11</v>
       </c>
       <c r="V13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W13" s="23">
+      <c r="W13" s="24">
         <v>124324070.737138</v>
       </c>
-      <c r="X13" s="10">
+      <c r="X13" s="11">
         <v>126858248.41900539</v>
       </c>
       <c r="Y13" s="7">
@@ -12029,13 +12123,13 @@
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="14"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="15"/>
       <c r="F14" s="8">
         <v>124.30691669999941</v>
       </c>
@@ -12049,12 +12143,12 @@
         <v>281.55618559999863</v>
       </c>
       <c r="J14" s="3"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
       <c r="M14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="17"/>
+      <c r="N14" s="18"/>
       <c r="O14" s="5">
         <v>0.19332550157435369</v>
       </c>
@@ -12068,13 +12162,13 @@
         <v>0.101478379256076</v>
       </c>
       <c r="S14" s="6"/>
-      <c r="T14" s="19"/>
-      <c r="U14" s="19"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
       <c r="V14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W14" s="23"/>
-      <c r="X14" s="11"/>
+      <c r="W14" s="24"/>
+      <c r="X14" s="12"/>
       <c r="Y14" s="7">
         <v>124564420.87046801</v>
       </c>
@@ -12089,13 +12183,13 @@
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
       <c r="C15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="15"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="16"/>
       <c r="F15" s="8">
         <v>153.1570088000008</v>
       </c>
@@ -12109,12 +12203,12 @@
         <v>223.3703489000327</v>
       </c>
       <c r="J15" s="3"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
       <c r="M15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="18"/>
+      <c r="N15" s="19"/>
       <c r="O15" s="5">
         <v>0.18766909328567241</v>
       </c>
@@ -12128,13 +12222,13 @@
         <v>0.13425663870316559</v>
       </c>
       <c r="S15" s="6"/>
-      <c r="T15" s="19"/>
-      <c r="U15" s="19"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
       <c r="V15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W15" s="23"/>
-      <c r="X15" s="12"/>
+      <c r="W15" s="24"/>
+      <c r="X15" s="13"/>
       <c r="Y15" s="7">
         <v>124557388.593426</v>
       </c>
@@ -12149,19 +12243,19 @@
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="22">
+      <c r="D16" s="23">
         <v>955.07370709999668</v>
       </c>
-      <c r="E16" s="13">
+      <c r="E16" s="14">
         <v>294.5091972000082</v>
       </c>
       <c r="F16" s="8">
@@ -12177,16 +12271,16 @@
         <v>369.98966459999792</v>
       </c>
       <c r="J16" s="3"/>
-      <c r="K16" s="19" t="s">
+      <c r="K16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="L16" s="19" t="s">
+      <c r="L16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N16" s="16">
+      <c r="N16" s="17">
         <v>1.082459349222705</v>
       </c>
       <c r="O16" s="5">
@@ -12202,19 +12296,19 @@
         <v>0.1120964852091916</v>
       </c>
       <c r="S16" s="6"/>
-      <c r="T16" s="19" t="s">
+      <c r="T16" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="U16" s="19" t="s">
+      <c r="U16" s="20" t="s">
         <v>12</v>
       </c>
       <c r="V16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W16" s="23">
+      <c r="W16" s="24">
         <v>120921002.36313801</v>
       </c>
-      <c r="X16" s="10">
+      <c r="X16" s="11">
         <v>122229923.0583916</v>
       </c>
       <c r="Y16" s="7">
@@ -12231,13 +12325,13 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="14"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="15"/>
       <c r="F17" s="8">
         <v>338.08819149999908</v>
       </c>
@@ -12251,12 +12345,12 @@
         <v>490.19490529999888</v>
       </c>
       <c r="J17" s="3"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
       <c r="M17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="17"/>
+      <c r="N17" s="18"/>
       <c r="O17" s="5">
         <v>0.2053724412547567</v>
       </c>
@@ -12270,13 +12364,13 @@
         <v>0.13739785449425759</v>
       </c>
       <c r="S17" s="6"/>
-      <c r="T17" s="19"/>
-      <c r="U17" s="19"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
       <c r="V17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W17" s="23"/>
-      <c r="X17" s="11"/>
+      <c r="W17" s="24"/>
+      <c r="X17" s="12"/>
       <c r="Y17" s="7">
         <v>121169340.7776809</v>
       </c>
@@ -12291,13 +12385,13 @@
       </c>
     </row>
     <row r="18" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
+      <c r="A18" s="20"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="15"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="16"/>
       <c r="F18" s="8">
         <v>344.21500280000328</v>
       </c>
@@ -12311,12 +12405,12 @@
         <v>347.40497519999923</v>
       </c>
       <c r="J18" s="3"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
       <c r="M18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N18" s="18"/>
+      <c r="N18" s="19"/>
       <c r="O18" s="5">
         <v>0.23377693905982649</v>
       </c>
@@ -12330,13 +12424,13 @@
         <v>0.2326380894055117</v>
       </c>
       <c r="S18" s="6"/>
-      <c r="T18" s="19"/>
-      <c r="U18" s="19"/>
+      <c r="T18" s="20"/>
+      <c r="U18" s="20"/>
       <c r="V18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W18" s="23"/>
-      <c r="X18" s="12"/>
+      <c r="W18" s="24"/>
+      <c r="X18" s="13"/>
       <c r="Y18" s="7">
         <v>121203687.78114299</v>
       </c>
@@ -12351,19 +12445,19 @@
       </c>
     </row>
     <row r="19" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="22">
+      <c r="D19" s="23">
         <v>5184.6941237000001</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="14">
         <v>600.45411610003794</v>
       </c>
       <c r="F19" s="8">
@@ -12379,16 +12473,16 @@
         <v>622.86385749999954</v>
       </c>
       <c r="J19" s="3"/>
-      <c r="K19" s="19" t="s">
+      <c r="K19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L19" s="19" t="s">
+      <c r="L19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="N19" s="16">
+      <c r="N19" s="17">
         <v>0.1289131091136457</v>
       </c>
       <c r="O19" s="5">
@@ -12404,19 +12498,19 @@
         <v>0.1103169001285691</v>
       </c>
       <c r="S19" s="6"/>
-      <c r="T19" s="19" t="s">
+      <c r="T19" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="U19" s="19" t="s">
+      <c r="U19" s="20" t="s">
         <v>13</v>
       </c>
       <c r="V19" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="W19" s="23">
+      <c r="W19" s="24">
         <v>189126782.8061139</v>
       </c>
-      <c r="X19" s="10">
+      <c r="X19" s="11">
         <v>189370592.02199599</v>
       </c>
       <c r="Y19" s="7">
@@ -12433,13 +12527,13 @@
       </c>
     </row>
     <row r="20" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="14"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="15"/>
       <c r="F20" s="8">
         <v>1167.9872307000001</v>
       </c>
@@ -12453,12 +12547,12 @@
         <v>633.25832780000019</v>
       </c>
       <c r="J20" s="3"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
       <c r="M20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="17"/>
+      <c r="N20" s="18"/>
       <c r="O20" s="5">
         <v>0.26601031484206489</v>
       </c>
@@ -12472,13 +12566,13 @@
         <v>0.20438227319238811</v>
       </c>
       <c r="S20" s="6"/>
-      <c r="T20" s="19"/>
-      <c r="U20" s="19"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
       <c r="V20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="W20" s="23"/>
-      <c r="X20" s="11"/>
+      <c r="W20" s="24"/>
+      <c r="X20" s="12"/>
       <c r="Y20" s="7">
         <v>189629879.55650711</v>
       </c>
@@ -12493,13 +12587,13 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.3">
-      <c r="A21" s="19"/>
-      <c r="B21" s="19"/>
+      <c r="A21" s="20"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="15"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="16"/>
       <c r="F21" s="8">
         <v>618.0655295000015</v>
       </c>
@@ -12513,12 +12607,12 @@
         <v>983.22086520000084</v>
       </c>
       <c r="J21" s="3"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
       <c r="M21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="N21" s="18"/>
+      <c r="N21" s="19"/>
       <c r="O21" s="5">
         <v>0.37652747915798901</v>
       </c>
@@ -12532,13 +12626,13 @@
         <v>5.5000444476768738E-2</v>
       </c>
       <c r="S21" s="6"/>
-      <c r="T21" s="19"/>
-      <c r="U21" s="19"/>
+      <c r="T21" s="20"/>
+      <c r="U21" s="20"/>
       <c r="V21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="W21" s="23"/>
-      <c r="X21" s="12"/>
+      <c r="W21" s="24"/>
+      <c r="X21" s="13"/>
       <c r="Y21" s="7">
         <v>189838897.1138263</v>
       </c>
@@ -12644,7 +12738,7 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <conditionalFormatting sqref="D4:I4 D5:D6 F5:I6">
-    <cfRule type="colorScale" priority="117">
+    <cfRule type="colorScale" priority="129">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12656,6 +12750,294 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:I6">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:I7 D8:D9 F8:I9">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D7:I9">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:I10 D11:D12 F11:I12">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D10:I12">
+    <cfRule type="colorScale" priority="51">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:I13 D14:D15 F14:I15">
+    <cfRule type="colorScale" priority="50">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:I15">
+    <cfRule type="colorScale" priority="49">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:I16 D17:D18 F17:I18">
+    <cfRule type="colorScale" priority="48">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D16:I18">
+    <cfRule type="colorScale" priority="47">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:I19 D20:D21 F20:I21">
+    <cfRule type="colorScale" priority="46">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:I21">
+    <cfRule type="colorScale" priority="45">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="colorScale" priority="42">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10">
+    <cfRule type="colorScale" priority="39">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13">
+    <cfRule type="colorScale" priority="36">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16">
+    <cfRule type="colorScale" priority="33">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N4:R6">
+    <cfRule type="colorScale" priority="44">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7:R9">
+    <cfRule type="colorScale" priority="41">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N10:R12">
+    <cfRule type="colorScale" priority="38">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N13:R15">
+    <cfRule type="colorScale" priority="35">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N16:R18">
+    <cfRule type="colorScale" priority="32">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N19:R21">
+    <cfRule type="colorScale" priority="29">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O4:R6">
+    <cfRule type="colorScale" priority="131">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O7:R9">
     <cfRule type="colorScale" priority="43">
       <colorScale>
         <cfvo type="min"/>
@@ -12667,31 +13049,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D7:I7 D8:D9 F8:I9">
-    <cfRule type="colorScale" priority="42">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D7:I9">
-    <cfRule type="colorScale" priority="41">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D10:I10 D11:D12 F11:I12">
+  <conditionalFormatting sqref="O10:R12">
     <cfRule type="colorScale" priority="40">
       <colorScale>
         <cfvo type="min"/>
@@ -12703,31 +13061,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D10:I12">
-    <cfRule type="colorScale" priority="39">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:I13 D14:D15 F14:I15">
-    <cfRule type="colorScale" priority="38">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D13:I15">
+  <conditionalFormatting sqref="O13:R15">
     <cfRule type="colorScale" priority="37">
       <colorScale>
         <cfvo type="min"/>
@@ -12739,31 +13073,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D16:I16 D17:D18 F17:I18">
-    <cfRule type="colorScale" priority="36">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D16:I18">
-    <cfRule type="colorScale" priority="35">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:I19 D20:D21 F20:I21">
+  <conditionalFormatting sqref="O16:R18">
     <cfRule type="colorScale" priority="34">
       <colorScale>
         <cfvo type="min"/>
@@ -12775,8 +13085,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:I21">
-    <cfRule type="colorScale" priority="33">
+  <conditionalFormatting sqref="O19:R21">
+    <cfRule type="colorScale" priority="31">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12787,8 +13097,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4">
-    <cfRule type="colorScale" priority="47">
+  <conditionalFormatting sqref="W4:AB6">
+    <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12799,8 +13109,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="colorScale" priority="30">
+  <conditionalFormatting sqref="W7:AB9">
+    <cfRule type="colorScale" priority="25">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -12811,7 +13121,139 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N10">
+  <conditionalFormatting sqref="W10:AB12">
+    <cfRule type="colorScale" priority="22">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W13:AB15">
+    <cfRule type="colorScale" priority="19">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W16:AB18">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W19:AB21">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X4">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X7">
+    <cfRule type="colorScale" priority="26">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X10">
+    <cfRule type="colorScale" priority="23">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X13">
+    <cfRule type="colorScale" priority="20">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X16">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X19">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y4:AB6 W4">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y7:AB9 W7">
     <cfRule type="colorScale" priority="27">
       <colorScale>
         <cfvo type="min"/>
@@ -12823,7 +13265,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N13">
+  <conditionalFormatting sqref="Y10:AB12 W10">
     <cfRule type="colorScale" priority="24">
       <colorScale>
         <cfvo type="min"/>
@@ -12835,7 +13277,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N16">
+  <conditionalFormatting sqref="Y13:AB15 W13">
     <cfRule type="colorScale" priority="21">
       <colorScale>
         <cfvo type="min"/>
@@ -12847,7 +13289,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N19">
+  <conditionalFormatting sqref="Y16:AB18 W16">
     <cfRule type="colorScale" priority="18">
       <colorScale>
         <cfvo type="min"/>
@@ -12859,356 +13301,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N4:R6">
-    <cfRule type="colorScale" priority="32">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7:R9">
-    <cfRule type="colorScale" priority="29">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N10:R12">
-    <cfRule type="colorScale" priority="26">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N13:R15">
-    <cfRule type="colorScale" priority="23">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N16:R18">
-    <cfRule type="colorScale" priority="20">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N19:R21">
-    <cfRule type="colorScale" priority="17">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O4:R6">
-    <cfRule type="colorScale" priority="119">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7:R9">
-    <cfRule type="colorScale" priority="31">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O10:R12">
-    <cfRule type="colorScale" priority="28">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O13:R15">
-    <cfRule type="colorScale" priority="25">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O16:R18">
-    <cfRule type="colorScale" priority="22">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O19:R21">
-    <cfRule type="colorScale" priority="19">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W4:AB6">
-    <cfRule type="colorScale" priority="16">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W7:AB9">
-    <cfRule type="colorScale" priority="13">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W10:AB12">
-    <cfRule type="colorScale" priority="10">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W13:AB15">
-    <cfRule type="colorScale" priority="7">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W16:AB18">
-    <cfRule type="colorScale" priority="4">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="W19:AB21">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X4">
-    <cfRule type="colorScale" priority="45">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X7">
-    <cfRule type="colorScale" priority="14">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X10">
-    <cfRule type="colorScale" priority="11">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X13">
-    <cfRule type="colorScale" priority="8">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X16">
-    <cfRule type="colorScale" priority="5">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="X19">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y4:AB6 W4">
-    <cfRule type="colorScale" priority="54">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y7:AB9 W7">
+  <conditionalFormatting sqref="Y19:AB21 W19">
     <cfRule type="colorScale" priority="15">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y10:AB12 W10">
-    <cfRule type="colorScale" priority="12">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y13:AB15 W13">
-    <cfRule type="colorScale" priority="9">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y16:AB18 W16">
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y19:AB21 W19">
-    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -13228,8 +13322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D737EC5-45FB-4746-B261-A42ECDB6E5E1}">
   <dimension ref="A1:I39"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M40" sqref="M39:M40"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -13238,25 +13332,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
+      <c r="A1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
     </row>
     <row r="2" spans="1:9" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
       <c r="C2" s="4" t="s">
         <v>15</v>
       </c>
@@ -13264,35 +13358,35 @@
         <v>0</v>
       </c>
       <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="22">
+      <c r="D3" s="23">
         <v>4.4437405999997281</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="14">
         <v>32.42636440001661</v>
       </c>
       <c r="F3" s="8">
@@ -13309,13 +13403,13 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="14"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="15"/>
       <c r="F4" s="8">
         <v>26.55899770000002</v>
       </c>
@@ -13330,13 +13424,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="15"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="16"/>
       <c r="F5" s="8">
         <v>28.72126100000003</v>
       </c>
@@ -13351,19 +13445,19 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="22">
+      <c r="D6" s="23">
         <v>15.76051720000032</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="14">
         <v>57.174778900051017</v>
       </c>
       <c r="F6" s="8">
@@ -13380,13 +13474,13 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="22"/>
-      <c r="E7" s="14"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="15"/>
       <c r="F7" s="8">
         <v>59.183636800000393</v>
       </c>
@@ -13401,13 +13495,13 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="22"/>
-      <c r="E8" s="15"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="16"/>
       <c r="F8" s="8">
         <v>59.783967999999732</v>
       </c>
@@ -13422,19 +13516,19 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="23">
         <v>116.30054050000039</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="14">
         <v>169.49530040001261</v>
       </c>
       <c r="F9" s="8">
@@ -13451,13 +13545,13 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="14"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="15"/>
       <c r="F10" s="8">
         <v>152.02559579999979</v>
       </c>
@@ -13472,13 +13566,13 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="15"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="16"/>
       <c r="F11" s="8">
         <v>139.27143769999751</v>
       </c>
@@ -13493,19 +13587,19 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="22">
+      <c r="D12" s="23">
         <v>36.367727700000607</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="14">
         <v>557.33090030000312</v>
       </c>
       <c r="F12" s="8">
@@ -13522,13 +13616,13 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="14"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="15"/>
       <c r="F13" s="8">
         <v>124.30691669999941</v>
       </c>
@@ -13543,13 +13637,13 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="15"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="16"/>
       <c r="F14" s="8">
         <v>153.1570088000008</v>
       </c>
@@ -13564,19 +13658,19 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="22">
+      <c r="D15" s="23">
         <v>955.07370709999668</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="14">
         <v>294.5091972000082</v>
       </c>
       <c r="F15" s="8">
@@ -13593,13 +13687,13 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="14"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="15"/>
       <c r="F16" s="8">
         <v>338.08819149999908</v>
       </c>
@@ -13614,13 +13708,13 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="15"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="16"/>
       <c r="F17" s="8">
         <v>344.21500280000328</v>
       </c>
@@ -13635,19 +13729,19 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="22">
+      <c r="D18" s="23">
         <v>5184.6941237000001</v>
       </c>
-      <c r="E18" s="13">
+      <c r="E18" s="14">
         <v>600.45411610003794</v>
       </c>
       <c r="F18" s="8">
@@ -13664,13 +13758,13 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="14"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="15"/>
       <c r="F19" s="8">
         <v>1167.9872307000001</v>
       </c>
@@ -13685,13 +13779,13 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="15"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="16"/>
       <c r="F20" s="8">
         <v>618.0655295000015</v>
       </c>
@@ -13707,7 +13801,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -13753,7 +13847,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B27" s="9">
         <v>32.42636440001661</v>
@@ -13776,7 +13870,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28" s="9">
         <v>26.47082450000002</v>
@@ -13799,7 +13893,7 @@
     </row>
     <row r="29" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" s="9">
         <v>28.035346200000021</v>
@@ -13822,7 +13916,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30" s="9">
         <v>29.24329890000001</v>
@@ -13845,7 +13939,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31" s="9">
         <v>31.3617271</v>
@@ -13868,7 +13962,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32" s="9">
         <v>26.55899770000002</v>
@@ -13891,7 +13985,7 @@
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" s="9">
         <v>28.574564800000019</v>
@@ -13914,7 +14008,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" s="9">
         <v>29.758330800000071</v>
@@ -13937,7 +14031,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35" s="9">
         <v>31.667528899999979</v>
@@ -13960,7 +14054,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36" s="9">
         <v>28.72126100000003</v>
@@ -13983,7 +14077,7 @@
     </row>
     <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37" s="9">
         <v>30.948350100000031</v>
@@ -14006,7 +14100,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38" s="9">
         <v>32.337306999999953</v>
@@ -14029,7 +14123,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39" s="9">
         <v>36.720983699999977</v>
@@ -14245,54 +14339,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
+      <c r="A1" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
     </row>
     <row r="2" spans="1:8" ht="40.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
       <c r="C2" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="16">
+        <v>18</v>
+      </c>
+      <c r="D3" s="17">
         <v>4.1975263725193841</v>
       </c>
       <c r="E3" s="5">
@@ -14309,12 +14403,12 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="19"/>
-      <c r="B4" s="19"/>
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="17"/>
+      <c r="D4" s="18"/>
       <c r="E4" s="5">
         <v>3.7924017786325832</v>
       </c>
@@ -14329,12 +14423,12 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
       <c r="C5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="18"/>
+      <c r="D5" s="19"/>
       <c r="E5" s="5">
         <v>0.20021876158094509</v>
       </c>
@@ -14349,16 +14443,16 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="17">
         <v>0.55127377425676183</v>
       </c>
       <c r="E6" s="5">
@@ -14375,12 +14469,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="19"/>
-      <c r="B7" s="19"/>
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
       <c r="C7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="17"/>
+      <c r="D7" s="18"/>
       <c r="E7" s="5">
         <v>0.75984295802836976</v>
       </c>
@@ -14395,12 +14489,12 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="19"/>
-      <c r="B8" s="19"/>
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
       <c r="C8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="18"/>
+      <c r="D8" s="19"/>
       <c r="E8" s="5">
         <v>0.62868556232624162</v>
       </c>
@@ -14415,16 +14509,16 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="16">
+      <c r="D9" s="17">
         <v>0.43427592360649181</v>
       </c>
       <c r="E9" s="5">
@@ -14441,12 +14535,12 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
       <c r="C10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="17"/>
+      <c r="D10" s="18"/>
       <c r="E10" s="5">
         <v>0.43800122175187434</v>
       </c>
@@ -14461,12 +14555,12 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
       <c r="C11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D11" s="18"/>
+      <c r="D11" s="19"/>
       <c r="E11" s="5">
         <v>0.22662788828815852</v>
       </c>
@@ -14481,16 +14575,16 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="20" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="17">
         <v>2.038364467027229</v>
       </c>
       <c r="E12" s="5">
@@ -14507,12 +14601,12 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
       <c r="C13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="17"/>
+      <c r="D13" s="18"/>
       <c r="E13" s="5">
         <v>0.19332550157435369</v>
       </c>
@@ -14527,12 +14621,12 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="19"/>
-      <c r="B14" s="19"/>
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="18"/>
+      <c r="D14" s="19"/>
       <c r="E14" s="5">
         <v>0.18766909328567241</v>
       </c>
@@ -14547,16 +14641,16 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="20" t="s">
         <v>12</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="16">
+      <c r="D15" s="17">
         <v>1.082459349222705</v>
       </c>
       <c r="E15" s="5">
@@ -14573,12 +14667,12 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="17"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="5">
         <v>0.2053724412547567</v>
       </c>
@@ -14593,12 +14687,12 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D17" s="18"/>
+      <c r="D17" s="19"/>
       <c r="E17" s="5">
         <v>0.23377693905982649</v>
       </c>
@@ -14613,16 +14707,16 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="20" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="16">
+      <c r="D18" s="17">
         <v>0.1289131091136457</v>
       </c>
       <c r="E18" s="5">
@@ -14639,12 +14733,12 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19"/>
-      <c r="B19" s="19"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="17"/>
+      <c r="D19" s="18"/>
       <c r="E19" s="5">
         <v>0.26601031484206489</v>
       </c>
@@ -14659,12 +14753,12 @@
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="19"/>
-      <c r="B20" s="19"/>
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="18"/>
+      <c r="D20" s="19"/>
       <c r="E20" s="5">
         <v>0.37652747915798901</v>
       </c>
@@ -14680,7 +14774,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -14703,7 +14797,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>4.1975263725193841</v>
@@ -14726,7 +14820,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B28">
         <v>4.7879557654893299</v>
@@ -14749,7 +14843,7 @@
     </row>
     <row r="29" spans="1:8" ht="27" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29">
         <v>0.21584893610792949</v>
@@ -14772,7 +14866,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B30">
         <v>4.0069447699657257E-2</v>
@@ -14795,7 +14889,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B31">
         <v>1.5678104908972219</v>
@@ -14818,7 +14912,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B32">
         <v>3.7924017786325832</v>
@@ -14841,7 +14935,7 @@
     </row>
     <row r="33" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33">
         <v>0.18355642562199651</v>
@@ -14864,7 +14958,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34">
         <v>0.44715298946040349</v>
@@ -14887,7 +14981,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B35">
         <v>4.7672630527646948E-2</v>
@@ -14910,7 +15004,7 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B36">
         <v>0.20021876158094509</v>
@@ -14933,7 +15027,7 @@
     </row>
     <row r="37" spans="1:7" ht="27" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B37">
         <v>0.16295714120099239</v>
@@ -14956,7 +15050,7 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B38">
         <v>7.9267106857007053E-2</v>
@@ -14979,7 +15073,7 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B39">
         <v>0.7926682140585225</v>
@@ -15245,4 +15339,3109 @@
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60287E6B-4B17-4296-A5C8-6D9BF69BDAE9}">
+  <dimension ref="A1:AB44"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="23" max="28" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:28" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="K1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="L1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+    </row>
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="S2" s="6"/>
+      <c r="T2" s="20"/>
+      <c r="U2" s="20"/>
+      <c r="V2" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y2" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Z2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="23">
+        <v>4.4437405999997281</v>
+      </c>
+      <c r="E3" s="14">
+        <v>32.42636440001661</v>
+      </c>
+      <c r="F3" s="8">
+        <v>26.47082450000002</v>
+      </c>
+      <c r="G3" s="8">
+        <v>28.035346200000021</v>
+      </c>
+      <c r="H3" s="8">
+        <v>29.24329890000001</v>
+      </c>
+      <c r="I3" s="8">
+        <v>31.3617271</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N3" s="17">
+        <v>4.1975263725193841</v>
+      </c>
+      <c r="O3" s="5">
+        <v>4.7879557654893299</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.21584893610792949</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>4.0069447699657257E-2</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1.5678104908972219</v>
+      </c>
+      <c r="S3" s="6"/>
+      <c r="T3" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="U3" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W3" s="11">
+        <v>60704072.122205101</v>
+      </c>
+      <c r="X3" s="11">
+        <v>63252141.558727801</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>63610556.115210786</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>60835101.093586192</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>60728395.786381602</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>61655796.809217803</v>
+      </c>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="20"/>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="23"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="8">
+        <v>26.55899770000002</v>
+      </c>
+      <c r="G4" s="8">
+        <v>28.574564800000019</v>
+      </c>
+      <c r="H4" s="8">
+        <v>29.758330800000071</v>
+      </c>
+      <c r="I4" s="8">
+        <v>31.667528899999979</v>
+      </c>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N4" s="18"/>
+      <c r="O4" s="5">
+        <v>3.7924017786325832</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0.18355642562199651</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0.44715298946040349</v>
+      </c>
+      <c r="R4" s="5">
+        <v>4.7672630527646948E-2</v>
+      </c>
+      <c r="S4" s="6"/>
+      <c r="T4" s="20"/>
+      <c r="U4" s="20"/>
+      <c r="V4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="7">
+        <v>63006214.306230403</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>60815498.224770203</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>60975512.072672203</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>60733011.227959797</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="8">
+        <v>28.72126100000003</v>
+      </c>
+      <c r="G5" s="8">
+        <v>30.948350100000031</v>
+      </c>
+      <c r="H5" s="8">
+        <v>32.337306999999953</v>
+      </c>
+      <c r="I5" s="8">
+        <v>36.720983699999977</v>
+      </c>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N5" s="19"/>
+      <c r="O5" s="5">
+        <v>0.20021876158094509</v>
+      </c>
+      <c r="P5" s="5">
+        <v>0.16295714120099239</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>7.9267106857007053E-2</v>
+      </c>
+      <c r="R5" s="5">
+        <v>0.7926682140585225</v>
+      </c>
+      <c r="S5" s="6"/>
+      <c r="T5" s="20"/>
+      <c r="U5" s="20"/>
+      <c r="V5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="7">
+        <v>60825612.941187613</v>
+      </c>
+      <c r="Z5" s="7">
+        <v>60802993.620323792</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>60752190.361618787</v>
+      </c>
+      <c r="AB5" s="7">
+        <v>61185253.8833832</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="23">
+        <v>15.76051720000032</v>
+      </c>
+      <c r="E6" s="14">
+        <v>57.174778900051017</v>
+      </c>
+      <c r="F6" s="8">
+        <v>56.65650000000096</v>
+      </c>
+      <c r="G6" s="8">
+        <v>56.00627539999914</v>
+      </c>
+      <c r="H6" s="8">
+        <v>56.041012900001078</v>
+      </c>
+      <c r="I6" s="8">
+        <v>58.989707100001397</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="17">
+        <v>0.55127377425676183</v>
+      </c>
+      <c r="O6" s="5">
+        <v>0.3371505257084601</v>
+      </c>
+      <c r="P6" s="5">
+        <v>0.28331619641242251</v>
+      </c>
+      <c r="Q6" s="5">
+        <v>0.3738225858029352</v>
+      </c>
+      <c r="R6" s="5">
+        <v>0.27398165752462439</v>
+      </c>
+      <c r="S6" s="6"/>
+      <c r="T6" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W6" s="11">
+        <v>68409915.671981901</v>
+      </c>
+      <c r="X6" s="11">
+        <v>68787041.596072704</v>
+      </c>
+      <c r="Y6" s="7">
+        <v>68640560.062306702</v>
+      </c>
+      <c r="Z6" s="7">
+        <v>68603732.043032706</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>68665647.387692511</v>
+      </c>
+      <c r="AB6" s="7">
+        <v>68597346.292851195</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="23"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="8">
+        <v>59.183636800000393</v>
+      </c>
+      <c r="G7" s="8">
+        <v>61.109449600000517</v>
+      </c>
+      <c r="H7" s="8">
+        <v>58.169434700001148</v>
+      </c>
+      <c r="I7" s="8">
+        <v>58.198113900001772</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" s="18"/>
+      <c r="O7" s="5">
+        <v>0.75984295802836976</v>
+      </c>
+      <c r="P7" s="5">
+        <v>0.36970661647881831</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>0.18347354620085099</v>
+      </c>
+      <c r="R7" s="5">
+        <v>0.14077661727852811</v>
+      </c>
+      <c r="S7" s="6"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="7">
+        <v>68929723.598808601</v>
+      </c>
+      <c r="Z7" s="7">
+        <v>68662831.656548798</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>68535429.770218298</v>
+      </c>
+      <c r="AB7" s="7">
+        <v>68506220.837148011</v>
+      </c>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
+      <c r="B8" s="20"/>
+      <c r="C8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="23"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="8">
+        <v>59.783967999999732</v>
+      </c>
+      <c r="G8" s="8">
+        <v>66.411767699999473</v>
+      </c>
+      <c r="H8" s="8">
+        <v>60.19950119999703</v>
+      </c>
+      <c r="I8" s="8">
+        <v>61.814072799999849</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="19"/>
+      <c r="O8" s="5">
+        <v>0.62868556232624162</v>
+      </c>
+      <c r="P8" s="5">
+        <v>0.39110962874153571</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>0.1375952814734327</v>
+      </c>
+      <c r="R8" s="5">
+        <v>0.41377360692279819</v>
+      </c>
+      <c r="S8" s="6"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="13"/>
+      <c r="X8" s="13"/>
+      <c r="Y8" s="7">
+        <v>68839998.935011208</v>
+      </c>
+      <c r="Z8" s="7">
+        <v>68677473.439188987</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>68504044.488006502</v>
+      </c>
+      <c r="AB8" s="7">
+        <v>68692977.847550705</v>
+      </c>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="23">
+        <v>116.30054050000039</v>
+      </c>
+      <c r="E9" s="14">
+        <v>169.49530040001261</v>
+      </c>
+      <c r="F9" s="8">
+        <v>142.94826740000099</v>
+      </c>
+      <c r="G9" s="8">
+        <v>135.77789499999929</v>
+      </c>
+      <c r="H9" s="8">
+        <v>140.084024400001</v>
+      </c>
+      <c r="I9" s="8">
+        <v>144.18302260000021</v>
+      </c>
+      <c r="K9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="17">
+        <v>0.43427592360649181</v>
+      </c>
+      <c r="O9" s="5">
+        <v>0.38914266068756531</v>
+      </c>
+      <c r="P9" s="5">
+        <v>0.25647628827045005</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>0.5075583455166528</v>
+      </c>
+      <c r="R9" s="5">
+        <v>5.0038179261292628E-2</v>
+      </c>
+      <c r="S9" s="6"/>
+      <c r="T9" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W9" s="11">
+        <v>71066366.351997718</v>
+      </c>
+      <c r="X9" s="11">
+        <v>71374990.470846429</v>
+      </c>
+      <c r="Y9" s="7">
+        <v>71342915.90087384</v>
+      </c>
+      <c r="Z9" s="7">
+        <v>71248634.730625987</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>71427069.625272706</v>
+      </c>
+      <c r="AB9" s="7">
+        <v>71101926.667787403</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="8">
+        <v>152.02559579999979</v>
+      </c>
+      <c r="G10" s="8">
+        <v>134.50916920000051</v>
+      </c>
+      <c r="H10" s="8">
+        <v>137.272615599999</v>
+      </c>
+      <c r="I10" s="8">
+        <v>141.09653880000039</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="18"/>
+      <c r="O10" s="5">
+        <v>0.43800122175187434</v>
+      </c>
+      <c r="P10" s="5">
+        <v>0.23310957340009686</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>0.13417908692670927</v>
+      </c>
+      <c r="R10" s="5">
+        <v>5.7679069740058375E-2</v>
+      </c>
+      <c r="S10" s="6"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="7">
+        <v>71377637.904874116</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>71232028.855431795</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>71161722.553480804</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>71107356.771007597</v>
+      </c>
+    </row>
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="8">
+        <v>139.27143769999751</v>
+      </c>
+      <c r="G11" s="8">
+        <v>138.11516069999931</v>
+      </c>
+      <c r="H11" s="8">
+        <v>139.64134910000209</v>
+      </c>
+      <c r="I11" s="8">
+        <v>145.58752749999991</v>
+      </c>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="19"/>
+      <c r="O11" s="5">
+        <v>0.22662788828815852</v>
+      </c>
+      <c r="P11" s="5">
+        <v>0.72214904969118898</v>
+      </c>
+      <c r="Q11" s="5">
+        <v>0.23735135273812119</v>
+      </c>
+      <c r="R11" s="5">
+        <v>0.26036991503879109</v>
+      </c>
+      <c r="S11" s="6"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+      <c r="V11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W11" s="13"/>
+      <c r="X11" s="13"/>
+      <c r="Y11" s="7">
+        <v>71227422.557344362</v>
+      </c>
+      <c r="Z11" s="7">
+        <v>71579571.441258714</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>71235043.333875999</v>
+      </c>
+      <c r="AB11" s="7">
+        <v>71251401.789689556</v>
+      </c>
+    </row>
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="23">
+        <v>36.367727700000607</v>
+      </c>
+      <c r="E12" s="14">
+        <v>557.33090030000312</v>
+      </c>
+      <c r="F12" s="8">
+        <v>137.9757699000038</v>
+      </c>
+      <c r="G12" s="8">
+        <v>173.07181409999609</v>
+      </c>
+      <c r="H12" s="8">
+        <v>119.99024129999449</v>
+      </c>
+      <c r="I12" s="8">
+        <v>292.35925400001003</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N12" s="17">
+        <v>2.038364467027229</v>
+      </c>
+      <c r="O12" s="5">
+        <v>0.16686635636622649</v>
+      </c>
+      <c r="P12" s="5">
+        <v>0.15341146789706611</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>0.16979760437956989</v>
+      </c>
+      <c r="R12" s="5">
+        <v>0.21358680708538461</v>
+      </c>
+      <c r="S12" s="6"/>
+      <c r="T12" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="U12" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="V12" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W12" s="11">
+        <v>124324070.737138</v>
+      </c>
+      <c r="X12" s="11">
+        <v>126858248.41900539</v>
+      </c>
+      <c r="Y12" s="7">
+        <v>124531525.784063</v>
+      </c>
+      <c r="Z12" s="7">
+        <v>124514798.11900499</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>124535170.0309166</v>
+      </c>
+      <c r="AB12" s="7">
+        <v>124589610.55026381</v>
+      </c>
+    </row>
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="8">
+        <v>124.30691669999941</v>
+      </c>
+      <c r="G13" s="8">
+        <v>173.81142450000331</v>
+      </c>
+      <c r="H13" s="8">
+        <v>109.0322940999977</v>
+      </c>
+      <c r="I13" s="8">
+        <v>281.55618559999863</v>
+      </c>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="O13" s="5">
+        <v>0.19332550157435369</v>
+      </c>
+      <c r="P13" s="5">
+        <v>0.1963019791914819</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>0.29605073806860172</v>
+      </c>
+      <c r="R13" s="5">
+        <v>0.101478379256076</v>
+      </c>
+      <c r="S13" s="6"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="12"/>
+      <c r="X13" s="12"/>
+      <c r="Y13" s="7">
+        <v>124564420.87046801</v>
+      </c>
+      <c r="Z13" s="7">
+        <v>124568121.3486062</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>124692133.06615201</v>
+      </c>
+      <c r="AB13" s="7">
+        <v>124450232.789147</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="8">
+        <v>153.1570088000008</v>
+      </c>
+      <c r="G14" s="8">
+        <v>145.1918671000021</v>
+      </c>
+      <c r="H14" s="8">
+        <v>138.17830069999761</v>
+      </c>
+      <c r="I14" s="8">
+        <v>223.3703489000327</v>
+      </c>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14" s="19"/>
+      <c r="O14" s="5">
+        <v>0.18766909328567241</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0.24462684596891751</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1.464474686745864</v>
+      </c>
+      <c r="R14" s="5">
+        <v>0.13425663870316559</v>
+      </c>
+      <c r="S14" s="6"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W14" s="13"/>
+      <c r="X14" s="13"/>
+      <c r="Y14" s="7">
+        <v>124557388.593426</v>
+      </c>
+      <c r="Z14" s="7">
+        <v>124628200.79016221</v>
+      </c>
+      <c r="AA14" s="7">
+        <v>126144765.2826152</v>
+      </c>
+      <c r="AB14" s="7">
+        <v>124490984.05560841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="23">
+        <v>955.07370709999668</v>
+      </c>
+      <c r="E15" s="14">
+        <v>294.5091972000082</v>
+      </c>
+      <c r="F15" s="8">
+        <v>267.74053129999811</v>
+      </c>
+      <c r="G15" s="8">
+        <v>272.28993929999712</v>
+      </c>
+      <c r="H15" s="8">
+        <v>284.70580070000142</v>
+      </c>
+      <c r="I15" s="8">
+        <v>369.98966459999792</v>
+      </c>
+      <c r="K15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N15" s="17">
+        <v>1.082459349222705</v>
+      </c>
+      <c r="O15" s="5">
+        <v>0.16591293568217899</v>
+      </c>
+      <c r="P15" s="5">
+        <v>0.2211054013688882</v>
+      </c>
+      <c r="Q15" s="5">
+        <v>0.53692611350518593</v>
+      </c>
+      <c r="R15" s="5">
+        <v>0.1120964852091916</v>
+      </c>
+      <c r="S15" s="6"/>
+      <c r="T15" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="U15" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="V15" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W15" s="11">
+        <v>120921002.36313801</v>
+      </c>
+      <c r="X15" s="11">
+        <v>122229923.0583916</v>
+      </c>
+      <c r="Y15" s="7">
+        <v>121121625.948015</v>
+      </c>
+      <c r="Z15" s="7">
+        <v>121188365.2307523</v>
+      </c>
+      <c r="AA15" s="7">
+        <v>121570258.8015379</v>
+      </c>
+      <c r="AB15" s="7">
+        <v>121056550.55666681</v>
+      </c>
+    </row>
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="8">
+        <v>338.08819149999908</v>
+      </c>
+      <c r="G16" s="8">
+        <v>307.58575920000288</v>
+      </c>
+      <c r="H16" s="8">
+        <v>356.07424039999751</v>
+      </c>
+      <c r="I16" s="8">
+        <v>490.19490529999888</v>
+      </c>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N16" s="18"/>
+      <c r="O16" s="5">
+        <v>0.2053724412547567</v>
+      </c>
+      <c r="P16" s="5">
+        <v>0.1187613622345285</v>
+      </c>
+      <c r="Q16" s="5">
+        <v>0.16574099776317749</v>
+      </c>
+      <c r="R16" s="5">
+        <v>0.13739785449425759</v>
+      </c>
+      <c r="S16" s="6"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+      <c r="V16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W16" s="12"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="7">
+        <v>121169340.7776809</v>
+      </c>
+      <c r="Z16" s="7">
+        <v>121064609.7927721</v>
+      </c>
+      <c r="AA16" s="7">
+        <v>121121418.03895991</v>
+      </c>
+      <c r="AB16" s="7">
+        <v>121087145.22601791</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="8">
+        <v>344.21500280000328</v>
+      </c>
+      <c r="G17" s="8">
+        <v>221.42428259999721</v>
+      </c>
+      <c r="H17" s="8">
+        <v>402.89089900000539</v>
+      </c>
+      <c r="I17" s="8">
+        <v>347.40497519999923</v>
+      </c>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N17" s="19"/>
+      <c r="O17" s="5">
+        <v>0.23377693905982649</v>
+      </c>
+      <c r="P17" s="5">
+        <v>0.16689172623813961</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>8.032356456194667E-2</v>
+      </c>
+      <c r="R17" s="5">
+        <v>0.2326380894055117</v>
+      </c>
+      <c r="S17" s="6"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+      <c r="V17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W17" s="13"/>
+      <c r="X17" s="13"/>
+      <c r="Y17" s="7">
+        <v>121203687.78114299</v>
+      </c>
+      <c r="Z17" s="7">
+        <v>121122809.51136629</v>
+      </c>
+      <c r="AA17" s="7">
+        <v>121018130.4225401</v>
+      </c>
+      <c r="AB17" s="7">
+        <v>121202310.6727256</v>
+      </c>
+    </row>
+    <row r="18" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="23">
+        <v>5184.6941237000001</v>
+      </c>
+      <c r="E18" s="14">
+        <v>600.45411610003794</v>
+      </c>
+      <c r="F18" s="8">
+        <v>544.44518770000013</v>
+      </c>
+      <c r="G18" s="8">
+        <v>521.80256929999996</v>
+      </c>
+      <c r="H18" s="8">
+        <v>701.42900760000066</v>
+      </c>
+      <c r="I18" s="8">
+        <v>622.86385749999954</v>
+      </c>
+      <c r="K18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N18" s="17">
+        <v>0.1289131091136457</v>
+      </c>
+      <c r="O18" s="5">
+        <v>0.29847878473736861</v>
+      </c>
+      <c r="P18" s="5">
+        <v>0.25125783162625459</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>0.30131617328477422</v>
+      </c>
+      <c r="R18" s="5">
+        <v>0.1103169001285691</v>
+      </c>
+      <c r="S18" s="6"/>
+      <c r="T18" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="U18" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="V18" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="W18" s="11">
+        <v>189126782.8061139</v>
+      </c>
+      <c r="X18" s="11">
+        <v>189370592.02199599</v>
+      </c>
+      <c r="Y18" s="7">
+        <v>189691286.12904641</v>
+      </c>
+      <c r="Z18" s="7">
+        <v>189601978.65961701</v>
+      </c>
+      <c r="AA18" s="7">
+        <v>189696652.39072189</v>
+      </c>
+      <c r="AB18" s="7">
+        <v>189335421.6102185</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="8">
+        <v>1167.9872307000001</v>
+      </c>
+      <c r="G19" s="8">
+        <v>833.2199782000007</v>
+      </c>
+      <c r="H19" s="8">
+        <v>558.83835650000037</v>
+      </c>
+      <c r="I19" s="8">
+        <v>633.25832780000019</v>
+      </c>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="N19" s="18"/>
+      <c r="O19" s="5">
+        <v>0.26601031484206489</v>
+      </c>
+      <c r="P19" s="5">
+        <v>0.57717421670055113</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1.2770610526983051</v>
+      </c>
+      <c r="R19" s="5">
+        <v>0.20438227319238811</v>
+      </c>
+      <c r="S19" s="6"/>
+      <c r="T19" s="20"/>
+      <c r="U19" s="20"/>
+      <c r="V19" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="W19" s="12"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="7">
+        <v>189629879.55650711</v>
+      </c>
+      <c r="Z19" s="7">
+        <v>190218373.83334601</v>
+      </c>
+      <c r="AA19" s="7">
+        <v>191542047.28955209</v>
+      </c>
+      <c r="AB19" s="7">
+        <v>189513324.42402861</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
+      <c r="B20" s="20"/>
+      <c r="C20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="8">
+        <v>618.0655295000015</v>
+      </c>
+      <c r="G20" s="8">
+        <v>811.21009000000049</v>
+      </c>
+      <c r="H20" s="8">
+        <v>695.59151740000016</v>
+      </c>
+      <c r="I20" s="8">
+        <v>983.22086520000084</v>
+      </c>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N20" s="19"/>
+      <c r="O20" s="5">
+        <v>0.37652747915798901</v>
+      </c>
+      <c r="P20" s="5">
+        <v>1.266554573369727</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>0.40291406382586981</v>
+      </c>
+      <c r="R20" s="5">
+        <v>5.5000444476768738E-2</v>
+      </c>
+      <c r="S20" s="6"/>
+      <c r="T20" s="20"/>
+      <c r="U20" s="20"/>
+      <c r="V20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="W20" s="13"/>
+      <c r="X20" s="13"/>
+      <c r="Y20" s="7">
+        <v>189838897.1138263</v>
+      </c>
+      <c r="Z20" s="7">
+        <v>191522176.72321171</v>
+      </c>
+      <c r="AA20" s="7">
+        <v>189888801.21250111</v>
+      </c>
+      <c r="AB20" s="7">
+        <v>189230803.37728181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="W24" s="24">
+        <f>W3/10000</f>
+        <v>6070.4072122205098</v>
+      </c>
+      <c r="X24" s="24">
+        <f>X3/10000</f>
+        <v>6325.2141558727799</v>
+      </c>
+      <c r="Y24" s="7">
+        <f>Y3/10000</f>
+        <v>6361.0556115210784</v>
+      </c>
+      <c r="Z24" s="7">
+        <f t="shared" ref="Z24:AB24" si="0">Z3/10000</f>
+        <v>6083.510109358619</v>
+      </c>
+      <c r="AA24" s="7">
+        <f t="shared" si="0"/>
+        <v>6072.8395786381607</v>
+      </c>
+      <c r="AB24" s="7">
+        <f t="shared" si="0"/>
+        <v>6165.57968092178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A25" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="W25" s="24"/>
+      <c r="X25" s="24"/>
+      <c r="Y25" s="7">
+        <f t="shared" ref="Y25:AB41" si="1">Y4/10000</f>
+        <v>6300.6214306230404</v>
+      </c>
+      <c r="Z25" s="7">
+        <f t="shared" si="1"/>
+        <v>6081.5498224770199</v>
+      </c>
+      <c r="AA25" s="7">
+        <f t="shared" si="1"/>
+        <v>6097.55120726722</v>
+      </c>
+      <c r="AB25" s="7">
+        <f t="shared" si="1"/>
+        <v>6073.3011227959796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="W26" s="24"/>
+      <c r="X26" s="24"/>
+      <c r="Y26" s="7">
+        <f t="shared" si="1"/>
+        <v>6082.561294118761</v>
+      </c>
+      <c r="Z26" s="7">
+        <f t="shared" si="1"/>
+        <v>6080.2993620323796</v>
+      </c>
+      <c r="AA26" s="7">
+        <f t="shared" si="1"/>
+        <v>6075.2190361618786</v>
+      </c>
+      <c r="AB26" s="7">
+        <f t="shared" si="1"/>
+        <v>6118.5253883383202</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A27" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="11">
+        <v>6070.4072122205098</v>
+      </c>
+      <c r="E27" s="11">
+        <v>6325.2141558727799</v>
+      </c>
+      <c r="F27" s="7">
+        <v>6361.0556115210784</v>
+      </c>
+      <c r="G27" s="7">
+        <v>6083.510109358619</v>
+      </c>
+      <c r="H27" s="7">
+        <v>6072.8395786381607</v>
+      </c>
+      <c r="I27" s="7">
+        <v>6165.57968092178</v>
+      </c>
+      <c r="W27" s="24">
+        <f t="shared" ref="W27:X27" si="2">W6/10000</f>
+        <v>6840.9915671981898</v>
+      </c>
+      <c r="X27" s="24">
+        <f t="shared" si="2"/>
+        <v>6878.7041596072704</v>
+      </c>
+      <c r="Y27" s="7">
+        <f t="shared" si="1"/>
+        <v>6864.0560062306704</v>
+      </c>
+      <c r="Z27" s="7">
+        <f t="shared" si="1"/>
+        <v>6860.3732043032705</v>
+      </c>
+      <c r="AA27" s="7">
+        <f t="shared" si="1"/>
+        <v>6866.5647387692516</v>
+      </c>
+      <c r="AB27" s="7">
+        <f t="shared" si="1"/>
+        <v>6859.7346292851198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="7">
+        <v>6300.6214306230404</v>
+      </c>
+      <c r="G28" s="7">
+        <v>6081.5498224770199</v>
+      </c>
+      <c r="H28" s="7">
+        <v>6097.55120726722</v>
+      </c>
+      <c r="I28" s="7">
+        <v>6073.3011227959796</v>
+      </c>
+      <c r="W28" s="24"/>
+      <c r="X28" s="24"/>
+      <c r="Y28" s="7">
+        <f t="shared" si="1"/>
+        <v>6892.9723598808605</v>
+      </c>
+      <c r="Z28" s="7">
+        <f t="shared" si="1"/>
+        <v>6866.2831656548797</v>
+      </c>
+      <c r="AA28" s="7">
+        <f t="shared" si="1"/>
+        <v>6853.5429770218298</v>
+      </c>
+      <c r="AB28" s="7">
+        <f t="shared" si="1"/>
+        <v>6850.6220837148012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="7">
+        <v>6082.561294118761</v>
+      </c>
+      <c r="G29" s="7">
+        <v>6080.2993620323796</v>
+      </c>
+      <c r="H29" s="7">
+        <v>6075.2190361618786</v>
+      </c>
+      <c r="I29" s="7">
+        <v>6118.5253883383202</v>
+      </c>
+      <c r="W29" s="24"/>
+      <c r="X29" s="24"/>
+      <c r="Y29" s="7">
+        <f t="shared" si="1"/>
+        <v>6883.9998935011208</v>
+      </c>
+      <c r="Z29" s="7">
+        <f t="shared" si="1"/>
+        <v>6867.7473439188989</v>
+      </c>
+      <c r="AA29" s="7">
+        <f t="shared" si="1"/>
+        <v>6850.4044488006502</v>
+      </c>
+      <c r="AB29" s="7">
+        <f t="shared" si="1"/>
+        <v>6869.2977847550701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="11">
+        <v>6840.9915671981898</v>
+      </c>
+      <c r="E30" s="11">
+        <v>6878.7041596072704</v>
+      </c>
+      <c r="F30" s="7">
+        <v>6864.0560062306704</v>
+      </c>
+      <c r="G30" s="7">
+        <v>6860.3732043032705</v>
+      </c>
+      <c r="H30" s="7">
+        <v>6866.5647387692516</v>
+      </c>
+      <c r="I30" s="7">
+        <v>6859.7346292851198</v>
+      </c>
+      <c r="W30" s="24">
+        <f t="shared" ref="W30:X30" si="3">W9/10000</f>
+        <v>7106.6366351997722</v>
+      </c>
+      <c r="X30" s="24">
+        <f t="shared" si="3"/>
+        <v>7137.4990470846433</v>
+      </c>
+      <c r="Y30" s="7">
+        <f t="shared" si="1"/>
+        <v>7134.2915900873841</v>
+      </c>
+      <c r="Z30" s="7">
+        <f t="shared" si="1"/>
+        <v>7124.863473062599</v>
+      </c>
+      <c r="AA30" s="7">
+        <f t="shared" si="1"/>
+        <v>7142.7069625272707</v>
+      </c>
+      <c r="AB30" s="7">
+        <f t="shared" si="1"/>
+        <v>7110.1926667787402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="7">
+        <v>6892.9723598808605</v>
+      </c>
+      <c r="G31" s="7">
+        <v>6866.2831656548797</v>
+      </c>
+      <c r="H31" s="7">
+        <v>6853.5429770218298</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6850.6220837148012</v>
+      </c>
+      <c r="W31" s="24"/>
+      <c r="X31" s="24"/>
+      <c r="Y31" s="7">
+        <f t="shared" si="1"/>
+        <v>7137.7637904874118</v>
+      </c>
+      <c r="Z31" s="7">
+        <f t="shared" si="1"/>
+        <v>7123.2028855431799</v>
+      </c>
+      <c r="AA31" s="7">
+        <f t="shared" si="1"/>
+        <v>7116.1722553480804</v>
+      </c>
+      <c r="AB31" s="7">
+        <f t="shared" si="1"/>
+        <v>7110.7356771007599</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="7">
+        <v>6883.9998935011208</v>
+      </c>
+      <c r="G32" s="7">
+        <v>6867.7473439188989</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6850.4044488006502</v>
+      </c>
+      <c r="I32" s="7">
+        <v>6869.2977847550701</v>
+      </c>
+      <c r="W32" s="24"/>
+      <c r="X32" s="24"/>
+      <c r="Y32" s="7">
+        <f t="shared" si="1"/>
+        <v>7122.7422557344362</v>
+      </c>
+      <c r="Z32" s="7">
+        <f t="shared" si="1"/>
+        <v>7157.9571441258713</v>
+      </c>
+      <c r="AA32" s="7">
+        <f t="shared" si="1"/>
+        <v>7123.5043333876001</v>
+      </c>
+      <c r="AB32" s="7">
+        <f t="shared" si="1"/>
+        <v>7125.1401789689553</v>
+      </c>
+    </row>
+    <row r="33" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A33" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="11">
+        <v>7106.6366351997722</v>
+      </c>
+      <c r="E33" s="11">
+        <v>7137.4990470846433</v>
+      </c>
+      <c r="F33" s="7">
+        <v>7134.2915900873841</v>
+      </c>
+      <c r="G33" s="7">
+        <v>7124.863473062599</v>
+      </c>
+      <c r="H33" s="7">
+        <v>7142.7069625272707</v>
+      </c>
+      <c r="I33" s="7">
+        <v>7110.1926667787402</v>
+      </c>
+      <c r="W33" s="24">
+        <f t="shared" ref="W33:X33" si="4">W12/10000</f>
+        <v>12432.407073713801</v>
+      </c>
+      <c r="X33" s="24">
+        <f t="shared" si="4"/>
+        <v>12685.824841900539</v>
+      </c>
+      <c r="Y33" s="7">
+        <f t="shared" si="1"/>
+        <v>12453.1525784063</v>
+      </c>
+      <c r="Z33" s="7">
+        <f t="shared" si="1"/>
+        <v>12451.479811900499</v>
+      </c>
+      <c r="AA33" s="7">
+        <f t="shared" si="1"/>
+        <v>12453.51700309166</v>
+      </c>
+      <c r="AB33" s="7">
+        <f t="shared" si="1"/>
+        <v>12458.961055026381</v>
+      </c>
+    </row>
+    <row r="34" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="7">
+        <v>7137.7637904874118</v>
+      </c>
+      <c r="G34" s="7">
+        <v>7123.2028855431799</v>
+      </c>
+      <c r="H34" s="7">
+        <v>7116.1722553480804</v>
+      </c>
+      <c r="I34" s="7">
+        <v>7110.7356771007599</v>
+      </c>
+      <c r="W34" s="24"/>
+      <c r="X34" s="24"/>
+      <c r="Y34" s="7">
+        <f t="shared" si="1"/>
+        <v>12456.4420870468</v>
+      </c>
+      <c r="Z34" s="7">
+        <f t="shared" si="1"/>
+        <v>12456.81213486062</v>
+      </c>
+      <c r="AA34" s="7">
+        <f t="shared" si="1"/>
+        <v>12469.2133066152</v>
+      </c>
+      <c r="AB34" s="7">
+        <f t="shared" si="1"/>
+        <v>12445.023278914701</v>
+      </c>
+    </row>
+    <row r="35" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="7">
+        <v>7122.7422557344362</v>
+      </c>
+      <c r="G35" s="7">
+        <v>7157.9571441258713</v>
+      </c>
+      <c r="H35" s="7">
+        <v>7123.5043333876001</v>
+      </c>
+      <c r="I35" s="7">
+        <v>7125.1401789689553</v>
+      </c>
+      <c r="W35" s="24"/>
+      <c r="X35" s="24"/>
+      <c r="Y35" s="7">
+        <f t="shared" si="1"/>
+        <v>12455.7388593426</v>
+      </c>
+      <c r="Z35" s="7">
+        <f t="shared" si="1"/>
+        <v>12462.820079016221</v>
+      </c>
+      <c r="AA35" s="7">
+        <f t="shared" si="1"/>
+        <v>12614.476528261521</v>
+      </c>
+      <c r="AB35" s="7">
+        <f t="shared" si="1"/>
+        <v>12449.098405560841</v>
+      </c>
+    </row>
+    <row r="36" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A36" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="11">
+        <v>12432.407073713801</v>
+      </c>
+      <c r="E36" s="11">
+        <v>12685.824841900539</v>
+      </c>
+      <c r="F36" s="7">
+        <v>12453.1525784063</v>
+      </c>
+      <c r="G36" s="7">
+        <v>12451.479811900499</v>
+      </c>
+      <c r="H36" s="7">
+        <v>12453.51700309166</v>
+      </c>
+      <c r="I36" s="7">
+        <v>12458.961055026381</v>
+      </c>
+      <c r="W36" s="24">
+        <f t="shared" ref="W36:X36" si="5">W15/10000</f>
+        <v>12092.100236313801</v>
+      </c>
+      <c r="X36" s="24">
+        <f t="shared" si="5"/>
+        <v>12222.99230583916</v>
+      </c>
+      <c r="Y36" s="7">
+        <f t="shared" si="1"/>
+        <v>12112.162594801501</v>
+      </c>
+      <c r="Z36" s="7">
+        <f t="shared" si="1"/>
+        <v>12118.83652307523</v>
+      </c>
+      <c r="AA36" s="7">
+        <f t="shared" si="1"/>
+        <v>12157.025880153789</v>
+      </c>
+      <c r="AB36" s="7">
+        <f t="shared" si="1"/>
+        <v>12105.655055666681</v>
+      </c>
+    </row>
+    <row r="37" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="7">
+        <v>12456.4420870468</v>
+      </c>
+      <c r="G37" s="7">
+        <v>12456.81213486062</v>
+      </c>
+      <c r="H37" s="7">
+        <v>12469.2133066152</v>
+      </c>
+      <c r="I37" s="7">
+        <v>12445.023278914701</v>
+      </c>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="7">
+        <f t="shared" si="1"/>
+        <v>12116.93407776809</v>
+      </c>
+      <c r="Z37" s="7">
+        <f t="shared" si="1"/>
+        <v>12106.46097927721</v>
+      </c>
+      <c r="AA37" s="7">
+        <f t="shared" si="1"/>
+        <v>12112.141803895991</v>
+      </c>
+      <c r="AB37" s="7">
+        <f t="shared" si="1"/>
+        <v>12108.714522601791</v>
+      </c>
+    </row>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="13"/>
+      <c r="E38" s="13"/>
+      <c r="F38" s="7">
+        <v>12455.7388593426</v>
+      </c>
+      <c r="G38" s="7">
+        <v>12462.820079016221</v>
+      </c>
+      <c r="H38" s="7">
+        <v>12614.476528261521</v>
+      </c>
+      <c r="I38" s="7">
+        <v>12449.098405560841</v>
+      </c>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="7">
+        <f t="shared" si="1"/>
+        <v>12120.3687781143</v>
+      </c>
+      <c r="Z38" s="7">
+        <f t="shared" si="1"/>
+        <v>12112.280951136629</v>
+      </c>
+      <c r="AA38" s="7">
+        <f t="shared" si="1"/>
+        <v>12101.813042254011</v>
+      </c>
+      <c r="AB38" s="7">
+        <f t="shared" si="1"/>
+        <v>12120.23106727256</v>
+      </c>
+    </row>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A39" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="11">
+        <v>12092.100236313801</v>
+      </c>
+      <c r="E39" s="11">
+        <v>12222.99230583916</v>
+      </c>
+      <c r="F39" s="7">
+        <v>12112.162594801501</v>
+      </c>
+      <c r="G39" s="7">
+        <v>12118.83652307523</v>
+      </c>
+      <c r="H39" s="7">
+        <v>12157.025880153789</v>
+      </c>
+      <c r="I39" s="7">
+        <v>12105.655055666681</v>
+      </c>
+      <c r="W39" s="24">
+        <f t="shared" ref="W39:X39" si="6">W18/10000</f>
+        <v>18912.678280611392</v>
+      </c>
+      <c r="X39" s="24">
+        <f t="shared" si="6"/>
+        <v>18937.059202199598</v>
+      </c>
+      <c r="Y39" s="7">
+        <f t="shared" si="1"/>
+        <v>18969.128612904642</v>
+      </c>
+      <c r="Z39" s="7">
+        <f t="shared" si="1"/>
+        <v>18960.197865961702</v>
+      </c>
+      <c r="AA39" s="7">
+        <f t="shared" si="1"/>
+        <v>18969.66523907219</v>
+      </c>
+      <c r="AB39" s="7">
+        <f t="shared" si="1"/>
+        <v>18933.542161021851</v>
+      </c>
+    </row>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="7">
+        <v>12116.93407776809</v>
+      </c>
+      <c r="G40" s="7">
+        <v>12106.46097927721</v>
+      </c>
+      <c r="H40" s="7">
+        <v>12112.141803895991</v>
+      </c>
+      <c r="I40" s="7">
+        <v>12108.714522601791</v>
+      </c>
+      <c r="W40" s="24"/>
+      <c r="X40" s="24"/>
+      <c r="Y40" s="7">
+        <f t="shared" si="1"/>
+        <v>18962.987955650711</v>
+      </c>
+      <c r="Z40" s="7">
+        <f t="shared" si="1"/>
+        <v>19021.837383334601</v>
+      </c>
+      <c r="AA40" s="7">
+        <f t="shared" si="1"/>
+        <v>19154.20472895521</v>
+      </c>
+      <c r="AB40" s="7">
+        <f t="shared" si="1"/>
+        <v>18951.332442402861</v>
+      </c>
+    </row>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="7">
+        <v>12120.3687781143</v>
+      </c>
+      <c r="G41" s="7">
+        <v>12112.280951136629</v>
+      </c>
+      <c r="H41" s="7">
+        <v>12101.813042254011</v>
+      </c>
+      <c r="I41" s="7">
+        <v>12120.23106727256</v>
+      </c>
+      <c r="W41" s="24"/>
+      <c r="X41" s="24"/>
+      <c r="Y41" s="7">
+        <f t="shared" si="1"/>
+        <v>18983.889711382632</v>
+      </c>
+      <c r="Z41" s="7">
+        <f t="shared" si="1"/>
+        <v>19152.217672321171</v>
+      </c>
+      <c r="AA41" s="7">
+        <f t="shared" si="1"/>
+        <v>18988.880121250109</v>
+      </c>
+      <c r="AB41" s="7">
+        <f t="shared" si="1"/>
+        <v>18923.080337728181</v>
+      </c>
+    </row>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A42" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="11">
+        <v>18912.678280611392</v>
+      </c>
+      <c r="E42" s="11">
+        <v>18937.059202199598</v>
+      </c>
+      <c r="F42" s="7">
+        <v>18969.128612904642</v>
+      </c>
+      <c r="G42" s="7">
+        <v>18960.197865961702</v>
+      </c>
+      <c r="H42" s="7">
+        <v>18969.66523907219</v>
+      </c>
+      <c r="I42" s="7">
+        <v>18933.542161021851</v>
+      </c>
+    </row>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="7">
+        <v>18962.987955650711</v>
+      </c>
+      <c r="G43" s="7">
+        <v>19021.837383334601</v>
+      </c>
+      <c r="H43" s="7">
+        <v>19154.20472895521</v>
+      </c>
+      <c r="I43" s="7">
+        <v>18951.332442402861</v>
+      </c>
+    </row>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="7">
+        <v>18983.889711382632</v>
+      </c>
+      <c r="G44" s="7">
+        <v>19152.217672321171</v>
+      </c>
+      <c r="H44" s="7">
+        <v>18988.880121250109</v>
+      </c>
+      <c r="I44" s="7">
+        <v>18923.080337728181</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="114">
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="D18:D20"/>
+    <mergeCell ref="E18:E20"/>
+    <mergeCell ref="A12:A14"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="D3:D5"/>
+    <mergeCell ref="E3:E5"/>
+    <mergeCell ref="D15:D17"/>
+    <mergeCell ref="E15:E17"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="A9:A11"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="D9:D11"/>
+    <mergeCell ref="E9:E11"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:R1"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:AB1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="X3:X5"/>
+    <mergeCell ref="K6:K8"/>
+    <mergeCell ref="L6:L8"/>
+    <mergeCell ref="N6:N8"/>
+    <mergeCell ref="T6:T8"/>
+    <mergeCell ref="U6:U8"/>
+    <mergeCell ref="W6:W8"/>
+    <mergeCell ref="X6:X8"/>
+    <mergeCell ref="K3:K5"/>
+    <mergeCell ref="L3:L5"/>
+    <mergeCell ref="N3:N5"/>
+    <mergeCell ref="T3:T5"/>
+    <mergeCell ref="U3:U5"/>
+    <mergeCell ref="W3:W5"/>
+    <mergeCell ref="X9:X11"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="N12:N14"/>
+    <mergeCell ref="T12:T14"/>
+    <mergeCell ref="U12:U14"/>
+    <mergeCell ref="W12:W14"/>
+    <mergeCell ref="X12:X14"/>
+    <mergeCell ref="K9:K11"/>
+    <mergeCell ref="L9:L11"/>
+    <mergeCell ref="N9:N11"/>
+    <mergeCell ref="T9:T11"/>
+    <mergeCell ref="U9:U11"/>
+    <mergeCell ref="W9:W11"/>
+    <mergeCell ref="X15:X17"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
+    <mergeCell ref="N18:N20"/>
+    <mergeCell ref="T18:T20"/>
+    <mergeCell ref="U18:U20"/>
+    <mergeCell ref="W18:W20"/>
+    <mergeCell ref="X18:X20"/>
+    <mergeCell ref="K15:K17"/>
+    <mergeCell ref="L15:L17"/>
+    <mergeCell ref="N15:N17"/>
+    <mergeCell ref="T15:T17"/>
+    <mergeCell ref="U15:U17"/>
+    <mergeCell ref="W15:W17"/>
+    <mergeCell ref="W33:W35"/>
+    <mergeCell ref="X33:X35"/>
+    <mergeCell ref="W36:W38"/>
+    <mergeCell ref="X36:X38"/>
+    <mergeCell ref="W39:W41"/>
+    <mergeCell ref="X39:X41"/>
+    <mergeCell ref="W24:W26"/>
+    <mergeCell ref="X24:X26"/>
+    <mergeCell ref="W27:W29"/>
+    <mergeCell ref="X27:X29"/>
+    <mergeCell ref="W30:W32"/>
+    <mergeCell ref="X30:X32"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="A33:A35"/>
+    <mergeCell ref="B33:B35"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="E33:E35"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:I25"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="D27:D29"/>
+    <mergeCell ref="E27:E29"/>
+    <mergeCell ref="A42:A44"/>
+    <mergeCell ref="B42:B44"/>
+    <mergeCell ref="D42:D44"/>
+    <mergeCell ref="E42:E44"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="D36:D38"/>
+    <mergeCell ref="E36:E38"/>
+    <mergeCell ref="A39:A41"/>
+    <mergeCell ref="B39:B41"/>
+    <mergeCell ref="D39:D41"/>
+    <mergeCell ref="E39:E41"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <conditionalFormatting sqref="D3:I3 D4:D5 F4:I5">
+    <cfRule type="colorScale" priority="102">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D3:I5">
+    <cfRule type="colorScale" priority="101">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:I6 D7:D8 F7:I8">
+    <cfRule type="colorScale" priority="100">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D6:I8">
+    <cfRule type="colorScale" priority="99">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:I9 D10:D11 F10:I11">
+    <cfRule type="colorScale" priority="98">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:I11">
+    <cfRule type="colorScale" priority="97">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:I12 D13:D14 F13:I14">
+    <cfRule type="colorScale" priority="96">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:I14">
+    <cfRule type="colorScale" priority="95">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:I15 D16:D17 F16:I17">
+    <cfRule type="colorScale" priority="94">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15:I17">
+    <cfRule type="colorScale" priority="93">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:I18 D19:D20 F19:I20">
+    <cfRule type="colorScale" priority="92">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D18:I20">
+    <cfRule type="colorScale" priority="91">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D27:I29">
+    <cfRule type="colorScale" priority="16">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D30:I32">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D33:I35">
+    <cfRule type="colorScale" priority="10">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D36:I38">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D39:I41">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42:I44">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27">
+    <cfRule type="colorScale" priority="17">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="colorScale" priority="14">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E33">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E36">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E39">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E42">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F27:I29 D27">
+    <cfRule type="colorScale" priority="18">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F30:I32 D30">
+    <cfRule type="colorScale" priority="15">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F33:I35 D33">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F36:I38 D36">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F39:I41 D39">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F42:I44 D42">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3">
+    <cfRule type="colorScale" priority="88">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6">
+    <cfRule type="colorScale" priority="84">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9">
+    <cfRule type="colorScale" priority="81">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12">
+    <cfRule type="colorScale" priority="78">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15">
+    <cfRule type="colorScale" priority="75">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18">
+    <cfRule type="colorScale" priority="72">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:R5">
+    <cfRule type="colorScale" priority="86">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N6:R8">
+    <cfRule type="colorScale" priority="83">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N9:R11">
+    <cfRule type="colorScale" priority="80">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N12:R14">
+    <cfRule type="colorScale" priority="77">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N15:R17">
+    <cfRule type="colorScale" priority="74">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N18:R20">
+    <cfRule type="colorScale" priority="71">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O3:R5">
+    <cfRule type="colorScale" priority="90">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O6:R8">
+    <cfRule type="colorScale" priority="85">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O9:R11">
+    <cfRule type="colorScale" priority="82">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O12:R14">
+    <cfRule type="colorScale" priority="79">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O15:R17">
+    <cfRule type="colorScale" priority="76">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O18:R20">
+    <cfRule type="colorScale" priority="73">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W27:X27 W30:X30 W33:X33 W36:X36 W39:X39 W24:AB24 Y25:AB41">
+    <cfRule type="colorScale" priority="54">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W3:AB5">
+    <cfRule type="colorScale" priority="70">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W6:AB8">
+    <cfRule type="colorScale" priority="67">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W9:AB11">
+    <cfRule type="colorScale" priority="64">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W12:AB14">
+    <cfRule type="colorScale" priority="61">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W15:AB17">
+    <cfRule type="colorScale" priority="58">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W18:AB20">
+    <cfRule type="colorScale" priority="55">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W24:AB41">
+    <cfRule type="colorScale" priority="52">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X3">
+    <cfRule type="colorScale" priority="87">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X6">
+    <cfRule type="colorScale" priority="68">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X9">
+    <cfRule type="colorScale" priority="65">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X12">
+    <cfRule type="colorScale" priority="62">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X15">
+    <cfRule type="colorScale" priority="59">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X18">
+    <cfRule type="colorScale" priority="56">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="X24 X27 X30 X33 X36 X39">
+    <cfRule type="colorScale" priority="53">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y3:AB5 W3">
+    <cfRule type="colorScale" priority="89">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y6:AB8 W6">
+    <cfRule type="colorScale" priority="69">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y9:AB11 W9">
+    <cfRule type="colorScale" priority="66">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y12:AB14 W12">
+    <cfRule type="colorScale" priority="63">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y15:AB17 W15">
+    <cfRule type="colorScale" priority="60">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y18:AB20 W18">
+    <cfRule type="colorScale" priority="57">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>